--- a/data/negative_signals/Indirectly connected (A-X-B) - Sotalol - agranulocytosis.xlsx
+++ b/data/negative_signals/Indirectly connected (A-X-B) - Sotalol - agranulocytosis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="691">
   <si>
     <t>pathWeight</t>
   </si>
@@ -173,565 +173,1177 @@
     <t>Chemicals &amp; Drugs</t>
   </si>
   <si>
+    <t>5648228</t>
+  </si>
+  <si>
+    <t>therapeutic procedure</t>
+  </si>
+  <si>
+    <t>Procedures</t>
+  </si>
+  <si>
+    <t>3170842</t>
+  </si>
+  <si>
+    <t>agranulocytosis</t>
+  </si>
+  <si>
+    <t>Disorders</t>
+  </si>
+  <si>
+    <t>97254299</t>
+  </si>
+  <si>
+    <t>is lower than</t>
+  </si>
+  <si>
+    <t>56916999</t>
+  </si>
+  <si>
+    <t>is compared with</t>
+  </si>
+  <si>
+    <t>55362971</t>
+  </si>
+  <si>
+    <t>122024626</t>
+  </si>
+  <si>
+    <t>is higher than</t>
+  </si>
+  <si>
+    <t>51310165</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>51726298</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
+    <t>57063162</t>
+  </si>
+  <si>
+    <t>85750725</t>
+  </si>
+  <si>
+    <t>52518918</t>
+  </si>
+  <si>
+    <t>treats</t>
+  </si>
+  <si>
+    <t>104841062</t>
+  </si>
+  <si>
+    <t>complicates</t>
+  </si>
+  <si>
+    <t>52177029</t>
+  </si>
+  <si>
+    <t>affects</t>
+  </si>
+  <si>
+    <t>51930910</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>51917529</t>
+  </si>
+  <si>
+    <t>predisposes</t>
+  </si>
+  <si>
+    <t>70248875</t>
+  </si>
+  <si>
+    <t>123319893</t>
+  </si>
+  <si>
+    <t>does not cause</t>
+  </si>
+  <si>
+    <t>4048979</t>
+  </si>
+  <si>
+    <t>mus</t>
+  </si>
+  <si>
+    <t>Living Beings</t>
+  </si>
+  <si>
+    <t>52754436</t>
+  </si>
+  <si>
+    <t>52070514</t>
+  </si>
+  <si>
+    <t>is process of</t>
+  </si>
+  <si>
+    <t>3007189</t>
+  </si>
+  <si>
+    <t>myocardial infarction</t>
+  </si>
+  <si>
+    <t>16433356</t>
+  </si>
+  <si>
+    <t>56624466</t>
+  </si>
+  <si>
+    <t>precedes</t>
+  </si>
+  <si>
+    <t>414518</t>
+  </si>
+  <si>
+    <t>congestive heart failure</t>
+  </si>
+  <si>
+    <t>16433143</t>
+  </si>
+  <si>
+    <t>indicates</t>
+  </si>
+  <si>
+    <t>16433215</t>
+  </si>
+  <si>
+    <t>40126353</t>
+  </si>
+  <si>
+    <t>is manifestation of</t>
+  </si>
+  <si>
+    <t>4048530</t>
+  </si>
+  <si>
+    <t>hypotension</t>
+  </si>
+  <si>
+    <t>54502412</t>
+  </si>
+  <si>
+    <t>16433248</t>
+  </si>
+  <si>
+    <t>97506618</t>
+  </si>
+  <si>
+    <t>40029151</t>
+  </si>
+  <si>
+    <t>760841</t>
+  </si>
+  <si>
+    <t>domestic rabbit</t>
+  </si>
+  <si>
+    <t>95465559</t>
+  </si>
+  <si>
+    <t>is administered to</t>
+  </si>
+  <si>
+    <t>60188440</t>
+  </si>
+  <si>
+    <t>51521980</t>
+  </si>
+  <si>
+    <t>2875951</t>
+  </si>
+  <si>
+    <t>empirical therapy</t>
+  </si>
+  <si>
+    <t>93162022</t>
+  </si>
+  <si>
+    <t>55047884</t>
+  </si>
+  <si>
+    <t>776040</t>
+  </si>
+  <si>
+    <t>paresis</t>
+  </si>
+  <si>
+    <t>16433352</t>
+  </si>
+  <si>
+    <t>40029223</t>
+  </si>
+  <si>
+    <t>526310</t>
+  </si>
+  <si>
+    <t>cardiopulmonary arrest</t>
+  </si>
+  <si>
+    <t>16433104</t>
+  </si>
+  <si>
+    <t>128719122</t>
+  </si>
+  <si>
+    <t>371441</t>
+  </si>
+  <si>
+    <t>zidovudine</t>
+  </si>
+  <si>
+    <t>71513746</t>
+  </si>
+  <si>
+    <t>71513665</t>
+  </si>
+  <si>
+    <t>13393563</t>
+  </si>
+  <si>
+    <t>133368</t>
+  </si>
+  <si>
+    <t>homo sapiens</t>
+  </si>
+  <si>
+    <t>124902594</t>
+  </si>
+  <si>
+    <t>55320324</t>
+  </si>
+  <si>
+    <t>52888366</t>
+  </si>
+  <si>
+    <t>85467004</t>
+  </si>
+  <si>
+    <t>3737354</t>
+  </si>
+  <si>
+    <t>prophylactic treatment</t>
+  </si>
+  <si>
+    <t>74026294</t>
+  </si>
+  <si>
+    <t>56938489</t>
+  </si>
+  <si>
+    <t>4049124</t>
+  </si>
+  <si>
+    <t>hyperthyroidism</t>
+  </si>
+  <si>
+    <t>52046816</t>
+  </si>
+  <si>
+    <t>16433232</t>
+  </si>
+  <si>
+    <t>40028679</t>
+  </si>
+  <si>
+    <t>63245819</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>805668</t>
+  </si>
+  <si>
+    <t>quinidine</t>
+  </si>
+  <si>
+    <t>52648132</t>
+  </si>
+  <si>
+    <t>87265829</t>
+  </si>
+  <si>
+    <t>interacts with</t>
+  </si>
+  <si>
+    <t>56419577</t>
+  </si>
+  <si>
+    <t>56419523</t>
+  </si>
+  <si>
+    <t>97028122</t>
+  </si>
+  <si>
+    <t>65992232</t>
+  </si>
+  <si>
+    <t>stimulates</t>
+  </si>
+  <si>
+    <t>70677991</t>
+  </si>
+  <si>
+    <t>74172237</t>
+  </si>
+  <si>
+    <t>83511923</t>
+  </si>
+  <si>
+    <t>is the same as</t>
+  </si>
+  <si>
+    <t>85775356</t>
+  </si>
+  <si>
+    <t>52647945</t>
+  </si>
+  <si>
+    <t>16279696</t>
+  </si>
+  <si>
+    <t>836319</t>
+  </si>
+  <si>
+    <t>drug toxicity</t>
+  </si>
+  <si>
+    <t>16433086</t>
+  </si>
+  <si>
+    <t>79060905</t>
+  </si>
+  <si>
+    <t>5699169</t>
+  </si>
+  <si>
+    <t>tocainide</t>
+  </si>
+  <si>
+    <t>57150888</t>
+  </si>
+  <si>
+    <t>57150568</t>
+  </si>
+  <si>
+    <t>16702187</t>
+  </si>
+  <si>
+    <t>423021</t>
+  </si>
+  <si>
+    <t>procainamide</t>
+  </si>
+  <si>
+    <t>60684943</t>
+  </si>
+  <si>
+    <t>116057369</t>
+  </si>
+  <si>
+    <t>inhibits</t>
+  </si>
+  <si>
+    <t>87578217</t>
+  </si>
+  <si>
+    <t>60191988</t>
+  </si>
+  <si>
+    <t>16096707</t>
+  </si>
+  <si>
+    <t>54126036</t>
+  </si>
+  <si>
+    <t>53276798</t>
+  </si>
+  <si>
+    <t>4049017</t>
+  </si>
+  <si>
+    <t>methyldopa</t>
+  </si>
+  <si>
+    <t>54656037</t>
+  </si>
+  <si>
+    <t>54655924</t>
+  </si>
+  <si>
+    <t>62056746</t>
+  </si>
+  <si>
+    <t>does not interact with</t>
+  </si>
+  <si>
+    <t>14319548</t>
+  </si>
+  <si>
+    <t>4040763</t>
+  </si>
+  <si>
+    <t>drug eruptions</t>
+  </si>
+  <si>
+    <t>16433072</t>
+  </si>
+  <si>
+    <t>91318718</t>
+  </si>
+  <si>
+    <t>2824923</t>
+  </si>
+  <si>
+    <t>zonal</t>
+  </si>
+  <si>
+    <t>96064237</t>
+  </si>
+  <si>
+    <t>51621433</t>
+  </si>
+  <si>
+    <t>123557739</t>
+  </si>
+  <si>
+    <t>133656574</t>
+  </si>
+  <si>
+    <t>15873042</t>
+  </si>
+  <si>
+    <t>2787844</t>
+  </si>
+  <si>
+    <t>abcb1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>Genes &amp; Molecular Sequences</t>
+  </si>
+  <si>
+    <t>23038477</t>
+  </si>
+  <si>
+    <t>22060087</t>
+  </si>
+  <si>
+    <t>28566081</t>
+  </si>
+  <si>
+    <t>gene product is biomarker type</t>
+  </si>
+  <si>
+    <t>307661</t>
+  </si>
+  <si>
+    <t>animals</t>
+  </si>
+  <si>
+    <t>97817753</t>
+  </si>
+  <si>
+    <t>59339992</t>
+  </si>
+  <si>
+    <t>is location of</t>
+  </si>
+  <si>
+    <t>54372499</t>
+  </si>
+  <si>
+    <t>816241</t>
+  </si>
+  <si>
+    <t>canis familiaris</t>
+  </si>
+  <si>
+    <t>59535011</t>
+  </si>
+  <si>
+    <t>53196937</t>
+  </si>
+  <si>
+    <t>57894297</t>
+  </si>
+  <si>
+    <t>607167</t>
+  </si>
+  <si>
+    <t>hypertensive disease</t>
+  </si>
+  <si>
+    <t>54408554</t>
+  </si>
+  <si>
+    <t>71204873</t>
+  </si>
+  <si>
+    <t>4877776</t>
+  </si>
+  <si>
+    <t>rattus norvegicus</t>
+  </si>
+  <si>
+    <t>105509101</t>
+  </si>
+  <si>
+    <t>62899585</t>
+  </si>
+  <si>
+    <t>58064927</t>
+  </si>
+  <si>
+    <t>74069156</t>
+  </si>
+  <si>
+    <t>is not process of</t>
+  </si>
+  <si>
+    <t>52170687</t>
+  </si>
+  <si>
+    <t>4033983</t>
+  </si>
+  <si>
+    <t>pharmaceutical preparations</t>
+  </si>
+  <si>
+    <t>60502498</t>
+  </si>
+  <si>
+    <t>63934094</t>
+  </si>
+  <si>
+    <t>68912769</t>
+  </si>
+  <si>
+    <t>78836512</t>
+  </si>
+  <si>
+    <t>88458481</t>
+  </si>
+  <si>
+    <t>68079879</t>
+  </si>
+  <si>
+    <t>61025026</t>
+  </si>
+  <si>
+    <t>60430453</t>
+  </si>
+  <si>
+    <t>84417937</t>
+  </si>
+  <si>
+    <t>97721574</t>
+  </si>
+  <si>
+    <t>68081150</t>
+  </si>
+  <si>
+    <t>52070555</t>
+  </si>
+  <si>
+    <t>113404737</t>
+  </si>
+  <si>
+    <t>61086538</t>
+  </si>
+  <si>
+    <t>78371095</t>
+  </si>
+  <si>
+    <t>94138945</t>
+  </si>
+  <si>
+    <t>disrupts</t>
+  </si>
+  <si>
+    <t>64127977</t>
+  </si>
+  <si>
+    <t>51659939</t>
+  </si>
+  <si>
+    <t>64133042</t>
+  </si>
+  <si>
+    <t>prevents</t>
+  </si>
+  <si>
+    <t>51795079</t>
+  </si>
+  <si>
+    <t>836328</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>Anatomy</t>
+  </si>
+  <si>
+    <t>51275519</t>
+  </si>
+  <si>
+    <t>56501158</t>
+  </si>
+  <si>
+    <t>684679</t>
+  </si>
+  <si>
+    <t>infant, newborn</t>
+  </si>
+  <si>
+    <t>70062495</t>
+  </si>
+  <si>
+    <t>61985775</t>
+  </si>
+  <si>
+    <t>52973318</t>
+  </si>
+  <si>
+    <t>301179</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>60442838</t>
+  </si>
+  <si>
+    <t>51281485</t>
+  </si>
+  <si>
+    <t>60251454</t>
+  </si>
+  <si>
+    <t>occurs in</t>
+  </si>
+  <si>
+    <t>590091</t>
+  </si>
+  <si>
+    <t>male population group</t>
+  </si>
+  <si>
+    <t>80796206</t>
+  </si>
+  <si>
+    <t>76206866</t>
+  </si>
+  <si>
+    <t>59476151</t>
+  </si>
+  <si>
+    <t>55795388</t>
+  </si>
+  <si>
     <t>4027653</t>
   </si>
   <si>
     <t>patients</t>
   </si>
   <si>
-    <t>Living Beings</t>
-  </si>
-  <si>
-    <t>3170842</t>
-  </si>
-  <si>
-    <t>agranulocytosis</t>
-  </si>
-  <si>
-    <t>Disorders</t>
-  </si>
-  <si>
-    <t>138625116</t>
+    <t>72275384</t>
   </si>
   <si>
     <t>does not treat</t>
   </si>
   <si>
-    <t>121087905</t>
-  </si>
-  <si>
-    <t>is administered to</t>
-  </si>
-  <si>
-    <t>117589729</t>
-  </si>
-  <si>
-    <t>treats</t>
-  </si>
-  <si>
-    <t>150058986</t>
+    <t>51725488</t>
+  </si>
+  <si>
+    <t>54839605</t>
+  </si>
+  <si>
+    <t>65381417</t>
+  </si>
+  <si>
+    <t>51368564</t>
+  </si>
+  <si>
+    <t>58548834</t>
+  </si>
+  <si>
+    <t>53440672</t>
+  </si>
+  <si>
+    <t>83683544</t>
   </si>
   <si>
     <t>does not occur in</t>
   </si>
   <si>
-    <t>131781462</t>
-  </si>
-  <si>
-    <t>affects</t>
-  </si>
-  <si>
-    <t>117580013</t>
-  </si>
-  <si>
-    <t>is process of</t>
-  </si>
-  <si>
-    <t>119703879</t>
-  </si>
-  <si>
-    <t>occurs in</t>
-  </si>
-  <si>
-    <t>124950062</t>
-  </si>
-  <si>
-    <t>is not process of</t>
-  </si>
-  <si>
-    <t>4048979</t>
-  </si>
-  <si>
-    <t>mus</t>
-  </si>
-  <si>
-    <t>119066895</t>
-  </si>
-  <si>
-    <t>118302760</t>
-  </si>
-  <si>
-    <t>3007189</t>
-  </si>
-  <si>
-    <t>myocardial infarction</t>
-  </si>
-  <si>
-    <t>82681875</t>
-  </si>
-  <si>
-    <t>123050000</t>
-  </si>
-  <si>
-    <t>precedes</t>
-  </si>
-  <si>
-    <t>4048530</t>
-  </si>
-  <si>
-    <t>hypotension</t>
-  </si>
-  <si>
-    <t>82681767</t>
-  </si>
-  <si>
-    <t>indicates</t>
-  </si>
-  <si>
-    <t>120849304</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>163713510</t>
-  </si>
-  <si>
-    <t>predisposes</t>
-  </si>
-  <si>
-    <t>106218881</t>
-  </si>
-  <si>
-    <t>is manifestation of</t>
-  </si>
-  <si>
-    <t>414518</t>
-  </si>
-  <si>
-    <t>congestive heart failure</t>
-  </si>
-  <si>
-    <t>82681734</t>
-  </si>
-  <si>
-    <t>82681662</t>
-  </si>
-  <si>
-    <t>106309675</t>
-  </si>
-  <si>
-    <t>760841</t>
-  </si>
-  <si>
-    <t>domestic rabbit</t>
-  </si>
-  <si>
-    <t>161653423</t>
-  </si>
-  <si>
-    <t>126599738</t>
-  </si>
-  <si>
-    <t>117720585</t>
-  </si>
-  <si>
-    <t>2875951</t>
-  </si>
-  <si>
-    <t>empirical therapy</t>
-  </si>
-  <si>
-    <t>Procedures</t>
-  </si>
-  <si>
-    <t>159344177</t>
-  </si>
-  <si>
-    <t>uses</t>
-  </si>
-  <si>
-    <t>121414097</t>
-  </si>
-  <si>
-    <t>776040</t>
-  </si>
-  <si>
-    <t>paresis</t>
-  </si>
-  <si>
-    <t>82681871</t>
-  </si>
-  <si>
-    <t>106218970</t>
-  </si>
-  <si>
-    <t>526310</t>
-  </si>
-  <si>
-    <t>cardiopulmonary arrest</t>
-  </si>
-  <si>
-    <t>82681623</t>
-  </si>
-  <si>
-    <t>194925488</t>
-  </si>
-  <si>
-    <t>371441</t>
-  </si>
-  <si>
-    <t>zidovudine</t>
-  </si>
-  <si>
-    <t>137999744</t>
-  </si>
-  <si>
-    <t>is higher than</t>
-  </si>
-  <si>
-    <t>137999698</t>
-  </si>
-  <si>
-    <t>is compared with</t>
-  </si>
-  <si>
-    <t>79240453</t>
-  </si>
-  <si>
-    <t>133368</t>
-  </si>
-  <si>
-    <t>homo sapiens</t>
-  </si>
-  <si>
-    <t>191110683</t>
-  </si>
-  <si>
-    <t>117677134</t>
-  </si>
-  <si>
-    <t>151840401</t>
-  </si>
-  <si>
-    <t>119180115</t>
-  </si>
-  <si>
-    <t>3737354</t>
-  </si>
-  <si>
-    <t>prophylactic treatment</t>
-  </si>
-  <si>
-    <t>140499591</t>
-  </si>
-  <si>
-    <t>123313610</t>
-  </si>
-  <si>
-    <t>836319</t>
-  </si>
-  <si>
-    <t>drug toxicity</t>
-  </si>
-  <si>
-    <t>82681605</t>
-  </si>
-  <si>
-    <t>145514844</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>805668</t>
-  </si>
-  <si>
-    <t>quinidine</t>
-  </si>
-  <si>
-    <t>140651918</t>
-  </si>
-  <si>
-    <t>122851441</t>
-  </si>
-  <si>
-    <t>118925673</t>
-  </si>
-  <si>
-    <t>122851517</t>
-  </si>
-  <si>
-    <t>132338332</t>
-  </si>
-  <si>
-    <t>stimulates</t>
-  </si>
-  <si>
-    <t>152245025</t>
-  </si>
-  <si>
-    <t>149888874</t>
-  </si>
-  <si>
-    <t>is the same as</t>
-  </si>
-  <si>
-    <t>163235299</t>
-  </si>
-  <si>
-    <t>is lower than</t>
-  </si>
-  <si>
-    <t>118925885</t>
-  </si>
-  <si>
-    <t>153541799</t>
-  </si>
-  <si>
-    <t>interacts with</t>
-  </si>
-  <si>
-    <t>137091697</t>
-  </si>
-  <si>
-    <t>82528780</t>
-  </si>
-  <si>
-    <t>5699169</t>
-  </si>
-  <si>
-    <t>tocainide</t>
-  </si>
-  <si>
-    <t>119665866</t>
-  </si>
-  <si>
-    <t>119666198</t>
-  </si>
-  <si>
-    <t>82950145</t>
-  </si>
-  <si>
-    <t>4049017</t>
-  </si>
-  <si>
-    <t>methyldopa</t>
-  </si>
-  <si>
-    <t>121054264</t>
-  </si>
-  <si>
-    <t>128397579</t>
-  </si>
-  <si>
-    <t>does not interact with</t>
-  </si>
-  <si>
-    <t>121054157</t>
-  </si>
-  <si>
-    <t>80593154</t>
-  </si>
-  <si>
-    <t>4040763</t>
-  </si>
-  <si>
-    <t>drug eruptions</t>
-  </si>
-  <si>
-    <t>82681591</t>
-  </si>
-  <si>
-    <t>157547623</t>
-  </si>
-  <si>
-    <t>2824923</t>
-  </si>
-  <si>
-    <t>zonal</t>
-  </si>
-  <si>
-    <t>189767515</t>
-  </si>
-  <si>
-    <t>117844130</t>
-  </si>
-  <si>
-    <t>162266831</t>
-  </si>
-  <si>
-    <t>199849367</t>
-  </si>
-  <si>
-    <t>82083739</t>
-  </si>
-  <si>
-    <t>2787844</t>
-  </si>
-  <si>
-    <t>abcb1 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>Genes &amp; Molecular Sequences</t>
-  </si>
-  <si>
-    <t>87938705</t>
-  </si>
-  <si>
-    <t>89065543</t>
-  </si>
-  <si>
-    <t>inhibits</t>
-  </si>
-  <si>
-    <t>94914406</t>
-  </si>
-  <si>
-    <t>gene product is biomarker type</t>
-  </si>
-  <si>
-    <t>307661</t>
-  </si>
-  <si>
-    <t>animals</t>
-  </si>
-  <si>
-    <t>164025272</t>
-  </si>
-  <si>
-    <t>125762236</t>
-  </si>
-  <si>
-    <t>is location of</t>
-  </si>
-  <si>
-    <t>120759718</t>
-  </si>
-  <si>
-    <t>4049124</t>
-  </si>
-  <si>
-    <t>hyperthyroidism</t>
-  </si>
-  <si>
-    <t>82681751</t>
-  </si>
-  <si>
-    <t>118279437</t>
-  </si>
-  <si>
-    <t>106218413</t>
-  </si>
-  <si>
-    <t>129638974</t>
-  </si>
-  <si>
-    <t>816241</t>
-  </si>
-  <si>
-    <t>canis familiaris</t>
-  </si>
-  <si>
-    <t>125876254</t>
-  </si>
-  <si>
-    <t>119524403</t>
-  </si>
-  <si>
-    <t>124274686</t>
-  </si>
-  <si>
-    <t>607167</t>
-  </si>
-  <si>
-    <t>hypertensive disease</t>
-  </si>
-  <si>
-    <t>120741482</t>
-  </si>
-  <si>
-    <t>137618085</t>
-  </si>
-  <si>
-    <t>836328</t>
-  </si>
-  <si>
-    <t>blood</t>
-  </si>
-  <si>
-    <t>Anatomy</t>
-  </si>
-  <si>
-    <t>117468906</t>
-  </si>
-  <si>
-    <t>122927422</t>
-  </si>
-  <si>
-    <t>423021</t>
-  </si>
-  <si>
-    <t>procainamide</t>
-  </si>
-  <si>
-    <t>182254869</t>
-  </si>
-  <si>
-    <t>153857566</t>
-  </si>
-  <si>
-    <t>127118254</t>
-  </si>
-  <si>
-    <t>82342632</t>
-  </si>
-  <si>
-    <t>120450917</t>
-  </si>
-  <si>
-    <t>119563466</t>
-  </si>
-  <si>
-    <t>126621279</t>
-  </si>
-  <si>
-    <t>684679</t>
-  </si>
-  <si>
-    <t>infant, newborn</t>
-  </si>
-  <si>
-    <t>128381401</t>
-  </si>
-  <si>
-    <t>133797405</t>
-  </si>
-  <si>
-    <t>119303570</t>
-  </si>
-  <si>
-    <t>301179</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>126881234</t>
-  </si>
-  <si>
-    <t>126681286</t>
-  </si>
-  <si>
-    <t>117474532</t>
-  </si>
-  <si>
-    <t>590091</t>
-  </si>
-  <si>
-    <t>male population group</t>
-  </si>
-  <si>
-    <t>147193050</t>
-  </si>
-  <si>
-    <t>142604934</t>
-  </si>
-  <si>
-    <t>125901790</t>
-  </si>
-  <si>
-    <t>122231954</t>
+    <t>3763552</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>104712432</t>
+  </si>
+  <si>
+    <t>101252482</t>
+  </si>
+  <si>
+    <t>69826116</t>
+  </si>
+  <si>
+    <t>36011</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>60442785</t>
+  </si>
+  <si>
+    <t>55600248</t>
+  </si>
+  <si>
+    <t>736321</t>
+  </si>
+  <si>
+    <t>cimetidine</t>
+  </si>
+  <si>
+    <t>77687143</t>
+  </si>
+  <si>
+    <t>77687219</t>
+  </si>
+  <si>
+    <t>52673933</t>
+  </si>
+  <si>
+    <t>5699005</t>
+  </si>
+  <si>
+    <t>falls</t>
+  </si>
+  <si>
+    <t>83669611</t>
+  </si>
+  <si>
+    <t>does not affect</t>
+  </si>
+  <si>
+    <t>53062625</t>
+  </si>
+  <si>
+    <t>53645122</t>
+  </si>
+  <si>
+    <t>40126278</t>
+  </si>
+  <si>
+    <t>4040981</t>
+  </si>
+  <si>
+    <t>pharmacotherapy</t>
+  </si>
+  <si>
+    <t>70915902</t>
+  </si>
+  <si>
+    <t>96244193</t>
+  </si>
+  <si>
+    <t>119516051</t>
+  </si>
+  <si>
+    <t>52519047</t>
+  </si>
+  <si>
+    <t>91931482</t>
+  </si>
+  <si>
+    <t>51285866</t>
+  </si>
+  <si>
+    <t>58048874</t>
+  </si>
+  <si>
+    <t>3815757</t>
+  </si>
+  <si>
+    <t>treatment protocols</t>
+  </si>
+  <si>
+    <t>96071229</t>
+  </si>
+  <si>
+    <t>69726045</t>
+  </si>
+  <si>
+    <t>132054246</t>
+  </si>
+  <si>
+    <t>59259151</t>
+  </si>
+  <si>
+    <t>3763785</t>
+  </si>
+  <si>
+    <t>lung infiltration</t>
+  </si>
+  <si>
+    <t>96322993</t>
+  </si>
+  <si>
+    <t>40126348</t>
+  </si>
+  <si>
+    <t>2986464</t>
+  </si>
+  <si>
+    <t>injection procedure</t>
+  </si>
+  <si>
+    <t>57742493</t>
+  </si>
+  <si>
+    <t>63851270</t>
+  </si>
+  <si>
+    <t>64875871</t>
+  </si>
+  <si>
+    <t>91931169</t>
+  </si>
+  <si>
+    <t>753457</t>
+  </si>
+  <si>
+    <t>inpatient</t>
+  </si>
+  <si>
+    <t>133049279</t>
+  </si>
+  <si>
+    <t>52405820</t>
+  </si>
+  <si>
+    <t>711620</t>
+  </si>
+  <si>
+    <t>combined modality therapy</t>
+  </si>
+  <si>
+    <t>53393448</t>
+  </si>
+  <si>
+    <t>56620884</t>
+  </si>
+  <si>
+    <t>51644439</t>
+  </si>
+  <si>
+    <t>696688</t>
+  </si>
+  <si>
+    <t>acetaminophen</t>
+  </si>
+  <si>
+    <t>59602189</t>
+  </si>
+  <si>
+    <t>58549314</t>
+  </si>
+  <si>
+    <t>5308239</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>56916847</t>
+  </si>
+  <si>
+    <t>71385682</t>
+  </si>
+  <si>
+    <t>52392191</t>
+  </si>
+  <si>
+    <t>66334415</t>
+  </si>
+  <si>
+    <t>356203</t>
+  </si>
+  <si>
+    <t>asthenia</t>
+  </si>
+  <si>
+    <t>86911965</t>
+  </si>
+  <si>
+    <t>40032930</t>
+  </si>
+  <si>
+    <t>3208634</t>
+  </si>
+  <si>
+    <t>evaluation procedure</t>
+  </si>
+  <si>
+    <t>77370551</t>
+  </si>
+  <si>
+    <t>56516925</t>
+  </si>
+  <si>
+    <t>3033627</t>
+  </si>
+  <si>
+    <t>discontinuation (procedure)</t>
+  </si>
+  <si>
+    <t>70780410</t>
+  </si>
+  <si>
+    <t>58180749</t>
+  </si>
+  <si>
+    <t>2822765</t>
+  </si>
+  <si>
+    <t>kidney failure</t>
+  </si>
+  <si>
+    <t>57737849</t>
+  </si>
+  <si>
+    <t>53365006</t>
+  </si>
+  <si>
+    <t>40126308</t>
+  </si>
+  <si>
+    <t>71673808</t>
+  </si>
+  <si>
+    <t>91583856</t>
+  </si>
+  <si>
+    <t>770408</t>
+  </si>
+  <si>
+    <t>phenytoin</t>
+  </si>
+  <si>
+    <t>87267297</t>
+  </si>
+  <si>
+    <t>107962241</t>
+  </si>
+  <si>
+    <t>57813232</t>
+  </si>
+  <si>
+    <t>650553</t>
+  </si>
+  <si>
+    <t>infant</t>
+  </si>
+  <si>
+    <t>68210282</t>
+  </si>
+  <si>
+    <t>67059621</t>
+  </si>
+  <si>
+    <t>55529318</t>
+  </si>
+  <si>
+    <t>6127696</t>
+  </si>
+  <si>
+    <t>aprindine</t>
+  </si>
+  <si>
+    <t>60450732</t>
+  </si>
+  <si>
+    <t>68427970</t>
+  </si>
+  <si>
+    <t>86366524</t>
+  </si>
+  <si>
+    <t>57842751</t>
+  </si>
+  <si>
+    <t>450061</t>
+  </si>
+  <si>
+    <t>propranolol</t>
+  </si>
+  <si>
+    <t>54342351</t>
+  </si>
+  <si>
+    <t>54342243</t>
+  </si>
+  <si>
+    <t>61785014</t>
+  </si>
+  <si>
+    <t>63153429</t>
+  </si>
+  <si>
+    <t>52070808</t>
+  </si>
+  <si>
+    <t>85775114</t>
+  </si>
+  <si>
+    <t>116263413</t>
+  </si>
+  <si>
+    <t>60590096</t>
+  </si>
+  <si>
+    <t>60502467</t>
+  </si>
+  <si>
+    <t>60606575</t>
+  </si>
+  <si>
+    <t>56233291</t>
+  </si>
+  <si>
+    <t>4028126</t>
+  </si>
+  <si>
+    <t>muscle</t>
+  </si>
+  <si>
+    <t>64323661</t>
+  </si>
+  <si>
+    <t>77377392</t>
+  </si>
+  <si>
+    <t>2861838</t>
+  </si>
+  <si>
+    <t>death (finding)</t>
+  </si>
+  <si>
+    <t>57063334</t>
+  </si>
+  <si>
+    <t>77794085</t>
+  </si>
+  <si>
+    <t>2449184</t>
+  </si>
+  <si>
+    <t>tissue membrane</t>
+  </si>
+  <si>
+    <t>55573094</t>
+  </si>
+  <si>
+    <t>87699144</t>
+  </si>
+  <si>
+    <t>2395251</t>
+  </si>
+  <si>
+    <t>toxic effect</t>
+  </si>
+  <si>
+    <t>95465505</t>
+  </si>
+  <si>
+    <t>54061806</t>
+  </si>
+  <si>
+    <t>66203895</t>
+  </si>
+  <si>
+    <t>105866610</t>
+  </si>
+  <si>
+    <t>237928</t>
+  </si>
+  <si>
+    <t>control groups</t>
+  </si>
+  <si>
+    <t>124639995</t>
+  </si>
+  <si>
+    <t>53141098</t>
+  </si>
+  <si>
+    <t>701874</t>
+  </si>
+  <si>
+    <t>pregnant women</t>
+  </si>
+  <si>
+    <t>102839193</t>
+  </si>
+  <si>
+    <t>52245826</t>
+  </si>
+  <si>
+    <t>6107559</t>
+  </si>
+  <si>
+    <t>application procedure</t>
+  </si>
+  <si>
+    <t>87699699</t>
+  </si>
+  <si>
+    <t>85708958</t>
+  </si>
+  <si>
+    <t>53391</t>
+  </si>
+  <si>
+    <t>indomethacin</t>
+  </si>
+  <si>
+    <t>105509308</t>
+  </si>
+  <si>
+    <t>67253307</t>
+  </si>
+  <si>
+    <t>65223682</t>
+  </si>
+  <si>
+    <t>13004265</t>
+  </si>
+  <si>
+    <t>527091</t>
+  </si>
+  <si>
+    <t>liver diseases</t>
+  </si>
+  <si>
+    <t>60388730</t>
+  </si>
+  <si>
+    <t>54341204</t>
   </si>
   <si>
     <t>47573</t>
@@ -740,112 +1352,664 @@
     <t>cells</t>
   </si>
   <si>
-    <t>126599509</t>
-  </si>
-  <si>
-    <t>169357828</t>
-  </si>
-  <si>
-    <t>disrupts</t>
-  </si>
-  <si>
-    <t>131657914</t>
-  </si>
-  <si>
-    <t>127477473</t>
-  </si>
-  <si>
-    <t>36011</t>
-  </si>
-  <si>
-    <t>adult</t>
-  </si>
-  <si>
-    <t>126881178</t>
-  </si>
-  <si>
-    <t>122022785</t>
-  </si>
-  <si>
-    <t>2395251</t>
-  </si>
-  <si>
-    <t>toxic effect</t>
-  </si>
-  <si>
-    <t>161653346</t>
-  </si>
-  <si>
-    <t>120424304</t>
-  </si>
-  <si>
-    <t>172079891</t>
-  </si>
-  <si>
-    <t>132536837</t>
-  </si>
-  <si>
-    <t>736321</t>
-  </si>
-  <si>
-    <t>cimetidine</t>
-  </si>
-  <si>
-    <t>144140233</t>
-  </si>
-  <si>
-    <t>144140293</t>
-  </si>
-  <si>
-    <t>118951579</t>
-  </si>
-  <si>
-    <t>711620</t>
-  </si>
-  <si>
-    <t>combined modality therapy</t>
-  </si>
-  <si>
-    <t>119713919</t>
-  </si>
-  <si>
-    <t>123001727</t>
-  </si>
-  <si>
-    <t>117865028</t>
-  </si>
-  <si>
-    <t>5699005</t>
-  </si>
-  <si>
-    <t>falls</t>
-  </si>
-  <si>
-    <t>119346964</t>
-  </si>
-  <si>
-    <t>119975817</t>
-  </si>
-  <si>
-    <t>150141516</t>
-  </si>
-  <si>
-    <t>does not affect</t>
-  </si>
-  <si>
-    <t>106309610</t>
-  </si>
-  <si>
-    <t>3763785</t>
-  </si>
-  <si>
-    <t>lung infiltration</t>
-  </si>
-  <si>
-    <t>162525235</t>
-  </si>
-  <si>
-    <t>106309672</t>
+    <t>65292766</t>
+  </si>
+  <si>
+    <t>103163786</t>
+  </si>
+  <si>
+    <t>60188103</t>
+  </si>
+  <si>
+    <t>61058464</t>
+  </si>
+  <si>
+    <t>426139</t>
+  </si>
+  <si>
+    <t>thioridazine</t>
+  </si>
+  <si>
+    <t>80292756</t>
+  </si>
+  <si>
+    <t>79075576</t>
+  </si>
+  <si>
+    <t>augments</t>
+  </si>
+  <si>
+    <t>16672808</t>
+  </si>
+  <si>
+    <t>4048875</t>
+  </si>
+  <si>
+    <t>implantation procedure</t>
+  </si>
+  <si>
+    <t>55364233</t>
+  </si>
+  <si>
+    <t>67553065</t>
+  </si>
+  <si>
+    <t>4035048</t>
+  </si>
+  <si>
+    <t>heart</t>
+  </si>
+  <si>
+    <t>83511390</t>
+  </si>
+  <si>
+    <t>123567517</t>
+  </si>
+  <si>
+    <t>is not location of</t>
+  </si>
+  <si>
+    <t>64407940</t>
+  </si>
+  <si>
+    <t>60606332</t>
+  </si>
+  <si>
+    <t>65013284</t>
+  </si>
+  <si>
+    <t>57128029</t>
+  </si>
+  <si>
+    <t>85155919</t>
+  </si>
+  <si>
+    <t>85155800</t>
+  </si>
+  <si>
+    <t>is associated with</t>
+  </si>
+  <si>
+    <t>4033943</t>
+  </si>
+  <si>
+    <t>combination drug therapy</t>
+  </si>
+  <si>
+    <t>85753317</t>
+  </si>
+  <si>
+    <t>82602015</t>
+  </si>
+  <si>
+    <t>35277</t>
+  </si>
+  <si>
+    <t>animal model</t>
+  </si>
+  <si>
+    <t>53937503</t>
+  </si>
+  <si>
+    <t>94231524</t>
+  </si>
+  <si>
+    <t>3204683</t>
+  </si>
+  <si>
+    <t>management procedure</t>
+  </si>
+  <si>
+    <t>Activities &amp; Behaviors</t>
+  </si>
+  <si>
+    <t>65493959</t>
+  </si>
+  <si>
+    <t>65980510</t>
+  </si>
+  <si>
+    <t>3070977</t>
+  </si>
+  <si>
+    <t>possible pregnancy (finding)</t>
+  </si>
+  <si>
+    <t>68230598</t>
+  </si>
+  <si>
+    <t>65463456</t>
+  </si>
+  <si>
+    <t>2875245</t>
+  </si>
+  <si>
+    <t>stimulation procedure</t>
+  </si>
+  <si>
+    <t>69725775</t>
+  </si>
+  <si>
+    <t>70198030</t>
+  </si>
+  <si>
+    <t>2406105</t>
+  </si>
+  <si>
+    <t>participant</t>
+  </si>
+  <si>
+    <t>57936525</t>
+  </si>
+  <si>
+    <t>107922067</t>
+  </si>
+  <si>
+    <t>222848</t>
+  </si>
+  <si>
+    <t>analgesics</t>
+  </si>
+  <si>
+    <t>83278872</t>
+  </si>
+  <si>
+    <t>58547365</t>
+  </si>
+  <si>
+    <t>1074935</t>
+  </si>
+  <si>
+    <t>traumatic injury</t>
+  </si>
+  <si>
+    <t>69326068</t>
+  </si>
+  <si>
+    <t>67593159</t>
+  </si>
+  <si>
+    <t>84764</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>Physiology</t>
+  </si>
+  <si>
+    <t>89556266</t>
+  </si>
+  <si>
+    <t>58061515</t>
+  </si>
+  <si>
+    <t>69850793</t>
+  </si>
+  <si>
+    <t>837423</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>65189980</t>
+  </si>
+  <si>
+    <t>55781034</t>
+  </si>
+  <si>
+    <t>55041484</t>
+  </si>
+  <si>
+    <t>96407286</t>
+  </si>
+  <si>
+    <t>55270109</t>
+  </si>
+  <si>
+    <t>836626</t>
+  </si>
+  <si>
+    <t>sodium chloride</t>
+  </si>
+  <si>
+    <t>86953257</t>
+  </si>
+  <si>
+    <t>61225966</t>
+  </si>
+  <si>
+    <t>58579938</t>
+  </si>
+  <si>
+    <t>719023</t>
+  </si>
+  <si>
+    <t>lung</t>
+  </si>
+  <si>
+    <t>119735515</t>
+  </si>
+  <si>
+    <t>73890596</t>
+  </si>
+  <si>
+    <t>is not associated with</t>
+  </si>
+  <si>
+    <t>54601126</t>
+  </si>
+  <si>
+    <t>91617621</t>
+  </si>
+  <si>
+    <t>5648475</t>
+  </si>
+  <si>
+    <t>vasodilation</t>
+  </si>
+  <si>
+    <t>64683634</t>
+  </si>
+  <si>
+    <t>59988158</t>
+  </si>
+  <si>
+    <t>5647992</t>
+  </si>
+  <si>
+    <t>cavia</t>
+  </si>
+  <si>
+    <t>60188356</t>
+  </si>
+  <si>
+    <t>60188007</t>
+  </si>
+  <si>
+    <t>76296046</t>
+  </si>
+  <si>
+    <t>74068972</t>
+  </si>
+  <si>
+    <t>544027</t>
+  </si>
+  <si>
+    <t>kidney</t>
+  </si>
+  <si>
+    <t>86792829</t>
+  </si>
+  <si>
+    <t>96250470</t>
+  </si>
+  <si>
+    <t>81359498</t>
+  </si>
+  <si>
+    <t>5102415</t>
+  </si>
+  <si>
+    <t>anti-arrhythmia agents</t>
+  </si>
+  <si>
+    <t>82864732</t>
+  </si>
+  <si>
+    <t>59142958</t>
+  </si>
+  <si>
+    <t>76767787</t>
+  </si>
+  <si>
+    <t>76767851</t>
+  </si>
+  <si>
+    <t>61597276</t>
+  </si>
+  <si>
+    <t>85750886</t>
+  </si>
+  <si>
+    <t>74115826</t>
+  </si>
+  <si>
+    <t>68428314</t>
+  </si>
+  <si>
+    <t>133195012</t>
+  </si>
+  <si>
+    <t>51815375</t>
+  </si>
+  <si>
+    <t>88243274</t>
+  </si>
+  <si>
+    <t>53696516</t>
+  </si>
+  <si>
+    <t>63780650</t>
+  </si>
+  <si>
+    <t>86366558</t>
+  </si>
+  <si>
+    <t>78089042</t>
+  </si>
+  <si>
+    <t>4964514</t>
+  </si>
+  <si>
+    <t>perindopril</t>
+  </si>
+  <si>
+    <t>97606190</t>
+  </si>
+  <si>
+    <t>82776292</t>
+  </si>
+  <si>
+    <t>492799</t>
+  </si>
+  <si>
+    <t>propafenone</t>
+  </si>
+  <si>
+    <t>55645619</t>
+  </si>
+  <si>
+    <t>89523729</t>
+  </si>
+  <si>
+    <t>is not higher than</t>
+  </si>
+  <si>
+    <t>73929405</t>
+  </si>
+  <si>
+    <t>55645694</t>
+  </si>
+  <si>
+    <t>78465993</t>
+  </si>
+  <si>
+    <t>55644841</t>
+  </si>
+  <si>
+    <t>87266797</t>
+  </si>
+  <si>
+    <t>86367112</t>
+  </si>
+  <si>
+    <t>45119</t>
+  </si>
+  <si>
+    <t>inflammation</t>
+  </si>
+  <si>
+    <t>101110748</t>
+  </si>
+  <si>
+    <t>62684945</t>
+  </si>
+  <si>
+    <t>4047989</t>
+  </si>
+  <si>
+    <t>liver</t>
+  </si>
+  <si>
+    <t>62842309</t>
+  </si>
+  <si>
+    <t>133888470</t>
+  </si>
+  <si>
+    <t>72651557</t>
+  </si>
+  <si>
+    <t>4042108</t>
+  </si>
+  <si>
+    <t>erythromycin</t>
+  </si>
+  <si>
+    <t>109438551</t>
+  </si>
+  <si>
+    <t>62289907</t>
+  </si>
+  <si>
+    <t>4041622</t>
+  </si>
+  <si>
+    <t>felis catus</t>
+  </si>
+  <si>
+    <t>109814140</t>
+  </si>
+  <si>
+    <t>76158575</t>
+  </si>
+  <si>
+    <t>4040861</t>
+  </si>
+  <si>
+    <t>complication</t>
+  </si>
+  <si>
+    <t>131035122</t>
+  </si>
+  <si>
+    <t>106586718</t>
+  </si>
+  <si>
+    <t>112503538</t>
+  </si>
+  <si>
+    <t>132046376</t>
+  </si>
+  <si>
+    <t>4028185</t>
+  </si>
+  <si>
+    <t>mother (person)</t>
+  </si>
+  <si>
+    <t>56742342</t>
+  </si>
+  <si>
+    <t>130691508</t>
+  </si>
+  <si>
+    <t>130824604</t>
+  </si>
+  <si>
+    <t>3815826</t>
+  </si>
+  <si>
+    <t>thyroid diseases</t>
+  </si>
+  <si>
+    <t>133003661</t>
+  </si>
+  <si>
+    <t>59782875</t>
+  </si>
+  <si>
+    <t>3814288</t>
+  </si>
+  <si>
+    <t>sheep</t>
+  </si>
+  <si>
+    <t>107827216</t>
+  </si>
+  <si>
+    <t>76923508</t>
+  </si>
+  <si>
+    <t>3743476</t>
+  </si>
+  <si>
+    <t>onset of illness</t>
+  </si>
+  <si>
+    <t>Concepts &amp; Ideas</t>
+  </si>
+  <si>
+    <t>89892516</t>
+  </si>
+  <si>
+    <t>75223735</t>
+  </si>
+  <si>
+    <t>3730810</t>
+  </si>
+  <si>
+    <t>dysplasia, nos</t>
+  </si>
+  <si>
+    <t>133153494</t>
+  </si>
+  <si>
+    <t>61776106</t>
+  </si>
+  <si>
+    <t>355837</t>
+  </si>
+  <si>
+    <t>ziprasidone</t>
+  </si>
+  <si>
+    <t>72352632</t>
+  </si>
+  <si>
+    <t>122747870</t>
+  </si>
+  <si>
+    <t>3247256</t>
+  </si>
+  <si>
+    <t>entire limb</t>
+  </si>
+  <si>
+    <t>59506123</t>
+  </si>
+  <si>
+    <t>98309730</t>
+  </si>
+  <si>
+    <t>3131611</t>
+  </si>
+  <si>
+    <t>observation parameter</t>
+  </si>
+  <si>
+    <t>72220203</t>
+  </si>
+  <si>
+    <t>74200222</t>
+  </si>
+  <si>
+    <t>96317051</t>
+  </si>
+  <si>
+    <t>66520228</t>
+  </si>
+  <si>
+    <t>3072277</t>
+  </si>
+  <si>
+    <t>antimicrobial susceptibility</t>
+  </si>
+  <si>
+    <t>80795927</t>
+  </si>
+  <si>
+    <t>103002432</t>
+  </si>
+  <si>
+    <t>125506909</t>
+  </si>
+  <si>
+    <t>60564323</t>
+  </si>
+  <si>
+    <t>2972331</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>87189705</t>
+  </si>
+  <si>
+    <t>54991986</t>
+  </si>
+  <si>
+    <t>76034353</t>
+  </si>
+  <si>
+    <t>2940375</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>106588393</t>
+  </si>
+  <si>
+    <t>131122396</t>
+  </si>
+  <si>
+    <t>124923777</t>
+  </si>
+  <si>
+    <t>2511284</t>
+  </si>
+  <si>
+    <t>induction procedure</t>
+  </si>
+  <si>
+    <t>107119074</t>
+  </si>
+  <si>
+    <t>60150595</t>
+  </si>
+  <si>
+    <t>2506281</t>
+  </si>
+  <si>
+    <t>adverse effects</t>
+  </si>
+  <si>
+    <t>113759889</t>
+  </si>
+  <si>
+    <t>53940732</t>
+  </si>
+  <si>
+    <t>122912263</t>
+  </si>
+  <si>
+    <t>65400904</t>
+  </si>
+  <si>
+    <t>90696644</t>
+  </si>
+  <si>
+    <t>57869738</t>
+  </si>
+  <si>
+    <t>125562143</t>
+  </si>
+  <si>
+    <t>105141404</t>
   </si>
   <si>
     <t>2449038</t>
@@ -854,1018 +2018,43 @@
     <t>cohort</t>
   </si>
   <si>
-    <t>160433055</t>
-  </si>
-  <si>
-    <t>162766990</t>
-  </si>
-  <si>
-    <t>130780763</t>
-  </si>
-  <si>
-    <t>155119894</t>
-  </si>
-  <si>
-    <t>155120609</t>
-  </si>
-  <si>
-    <t>5308239</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>123329184</t>
-  </si>
-  <si>
-    <t>137734654</t>
-  </si>
-  <si>
-    <t>118632708</t>
-  </si>
-  <si>
-    <t>129695389</t>
-  </si>
-  <si>
-    <t>753457</t>
-  </si>
-  <si>
-    <t>inpatient</t>
-  </si>
-  <si>
-    <t>199241108</t>
-  </si>
-  <si>
-    <t>118666781</t>
-  </si>
-  <si>
-    <t>696688</t>
-  </si>
-  <si>
-    <t>acetaminophen</t>
-  </si>
-  <si>
-    <t>125993048</t>
-  </si>
-  <si>
-    <t>124950487</t>
-  </si>
-  <si>
-    <t>4028185</t>
-  </si>
-  <si>
-    <t>mother (person)</t>
-  </si>
-  <si>
-    <t>196844104</t>
-  </si>
-  <si>
-    <t>123251426</t>
-  </si>
-  <si>
-    <t>197014211</t>
-  </si>
-  <si>
-    <t>356203</t>
-  </si>
-  <si>
-    <t>asthenia</t>
-  </si>
-  <si>
-    <t>153251248</t>
-  </si>
-  <si>
-    <t>106222557</t>
-  </si>
-  <si>
-    <t>3208634</t>
-  </si>
-  <si>
-    <t>evaluation procedure</t>
-  </si>
-  <si>
-    <t>143759266</t>
-  </si>
-  <si>
-    <t>122941744</t>
-  </si>
-  <si>
-    <t>3033627</t>
-  </si>
-  <si>
-    <t>discontinuation (procedure)</t>
-  </si>
-  <si>
-    <t>137192367</t>
-  </si>
-  <si>
-    <t>124608306</t>
-  </si>
-  <si>
-    <t>2822765</t>
-  </si>
-  <si>
-    <t>kidney failure</t>
-  </si>
-  <si>
-    <t>124141321</t>
-  </si>
-  <si>
-    <t>prevents</t>
-  </si>
-  <si>
-    <t>119683490</t>
-  </si>
-  <si>
-    <t>157766281</t>
-  </si>
-  <si>
-    <t>137991536</t>
-  </si>
-  <si>
-    <t>106309635</t>
-  </si>
-  <si>
-    <t>770408</t>
-  </si>
-  <si>
-    <t>phenytoin</t>
-  </si>
-  <si>
-    <t>174180457</t>
-  </si>
-  <si>
-    <t>153543073</t>
-  </si>
-  <si>
-    <t>124235670</t>
-  </si>
-  <si>
-    <t>650553</t>
-  </si>
-  <si>
-    <t>infant</t>
-  </si>
-  <si>
-    <t>134565947</t>
-  </si>
-  <si>
-    <t>122066835</t>
-  </si>
-  <si>
-    <t>133458643</t>
-  </si>
-  <si>
-    <t>6127696</t>
-  </si>
-  <si>
-    <t>aprindine</t>
-  </si>
-  <si>
-    <t>134744298</t>
-  </si>
-  <si>
-    <t>123379010</t>
-  </si>
-  <si>
-    <t>152828984</t>
-  </si>
-  <si>
-    <t>124275981</t>
-  </si>
-  <si>
-    <t>450061</t>
-  </si>
-  <si>
-    <t>propranolol</t>
-  </si>
-  <si>
-    <t>127041392</t>
-  </si>
-  <si>
-    <t>126890459</t>
-  </si>
-  <si>
-    <t>118326103</t>
-  </si>
-  <si>
-    <t>120672316</t>
-  </si>
-  <si>
-    <t>120672425</t>
-  </si>
-  <si>
-    <t>126989499</t>
-  </si>
-  <si>
-    <t>182460978</t>
-  </si>
-  <si>
-    <t>128187607</t>
-  </si>
-  <si>
-    <t>152244639</t>
-  </si>
-  <si>
-    <t>129498406</t>
-  </si>
-  <si>
-    <t>122623749</t>
-  </si>
-  <si>
-    <t>4035048</t>
-  </si>
-  <si>
-    <t>heart</t>
-  </si>
-  <si>
-    <t>189781420</t>
-  </si>
-  <si>
-    <t>is not location of</t>
-  </si>
-  <si>
-    <t>127041126</t>
-  </si>
-  <si>
-    <t>123536890</t>
-  </si>
-  <si>
-    <t>130768520</t>
-  </si>
-  <si>
-    <t>augments</t>
-  </si>
-  <si>
-    <t>131419152</t>
-  </si>
-  <si>
-    <t>149888349</t>
-  </si>
-  <si>
-    <t>149653416</t>
-  </si>
-  <si>
-    <t>is associated with</t>
-  </si>
-  <si>
-    <t>149653552</t>
-  </si>
-  <si>
-    <t>4033983</t>
-  </si>
-  <si>
-    <t>pharmaceutical preparations</t>
-  </si>
-  <si>
-    <t>118325780</t>
-  </si>
-  <si>
-    <t>is a</t>
-  </si>
-  <si>
-    <t>150843220</t>
-  </si>
-  <si>
-    <t>130340208</t>
-  </si>
-  <si>
-    <t>126833837</t>
-  </si>
-  <si>
-    <t>127429494</t>
-  </si>
-  <si>
-    <t>134569784</t>
-  </si>
-  <si>
-    <t>145322183</t>
-  </si>
-  <si>
-    <t>132534820</t>
-  </si>
-  <si>
-    <t>179576846</t>
-  </si>
-  <si>
-    <t>163927937</t>
-  </si>
-  <si>
-    <t>154647459</t>
-  </si>
-  <si>
-    <t>126890492</t>
-  </si>
-  <si>
-    <t>134570983</t>
-  </si>
-  <si>
-    <t>130520472</t>
-  </si>
-  <si>
-    <t>124087865</t>
-  </si>
-  <si>
-    <t>117868141</t>
-  </si>
-  <si>
-    <t>160421810</t>
-  </si>
-  <si>
-    <t>144853775</t>
-  </si>
-  <si>
-    <t>does not cause</t>
-  </si>
-  <si>
-    <t>130525693</t>
-  </si>
-  <si>
-    <t>118011469</t>
-  </si>
-  <si>
-    <t>4028126</t>
-  </si>
-  <si>
-    <t>muscle</t>
-  </si>
-  <si>
-    <t>130737203</t>
-  </si>
-  <si>
-    <t>143858124</t>
-  </si>
-  <si>
-    <t>2861838</t>
-  </si>
-  <si>
-    <t>death (finding)</t>
-  </si>
-  <si>
-    <t>123472714</t>
-  </si>
-  <si>
-    <t>144247513</t>
-  </si>
-  <si>
-    <t>2449184</t>
-  </si>
-  <si>
-    <t>tissue membrane</t>
-  </si>
-  <si>
-    <t>121966870</t>
-  </si>
-  <si>
-    <t>154025010</t>
-  </si>
-  <si>
-    <t>237928</t>
-  </si>
-  <si>
-    <t>control groups</t>
-  </si>
-  <si>
-    <t>190847823</t>
-  </si>
-  <si>
-    <t>119428032</t>
-  </si>
-  <si>
-    <t>719023</t>
-  </si>
-  <si>
-    <t>lung</t>
-  </si>
-  <si>
-    <t>185944582</t>
-  </si>
-  <si>
-    <t>140215826</t>
-  </si>
-  <si>
-    <t>is not associated with</t>
-  </si>
-  <si>
-    <t>157806492</t>
-  </si>
-  <si>
-    <t>120982125</t>
-  </si>
-  <si>
-    <t>701874</t>
-  </si>
-  <si>
-    <t>pregnant women</t>
-  </si>
-  <si>
-    <t>169049477</t>
-  </si>
-  <si>
-    <t>118511805</t>
-  </si>
-  <si>
-    <t>6107559</t>
-  </si>
-  <si>
-    <t>application procedure</t>
-  </si>
-  <si>
-    <t>153967538</t>
-  </si>
-  <si>
-    <t>152135257</t>
-  </si>
-  <si>
-    <t>53391</t>
-  </si>
-  <si>
-    <t>indomethacin</t>
-  </si>
-  <si>
-    <t>171701021</t>
-  </si>
-  <si>
-    <t>79341005</t>
-  </si>
-  <si>
-    <t>133671808</t>
-  </si>
-  <si>
-    <t>131563802</t>
-  </si>
-  <si>
-    <t>527091</t>
-  </si>
-  <si>
-    <t>liver diseases</t>
-  </si>
-  <si>
-    <t>123310554</t>
-  </si>
-  <si>
-    <t>120671597</t>
-  </si>
-  <si>
-    <t>426139</t>
-  </si>
-  <si>
-    <t>thioridazine</t>
-  </si>
-  <si>
-    <t>146732549</t>
-  </si>
-  <si>
-    <t>82920812</t>
-  </si>
-  <si>
-    <t>145428746</t>
-  </si>
-  <si>
-    <t>4048875</t>
-  </si>
-  <si>
-    <t>implantation procedure</t>
-  </si>
-  <si>
-    <t>121768275</t>
-  </si>
-  <si>
-    <t>133955113</t>
-  </si>
-  <si>
-    <t>4040981</t>
-  </si>
-  <si>
-    <t>pharmacotherapy</t>
-  </si>
-  <si>
-    <t>137406290</t>
-  </si>
-  <si>
-    <t>162436095</t>
-  </si>
-  <si>
-    <t>185727223</t>
-  </si>
-  <si>
-    <t>158100772</t>
-  </si>
-  <si>
-    <t>117479629</t>
-  </si>
-  <si>
-    <t>124455038</t>
-  </si>
-  <si>
-    <t>118781421</t>
-  </si>
-  <si>
-    <t>4033943</t>
-  </si>
-  <si>
-    <t>combination drug therapy</t>
-  </si>
-  <si>
-    <t>152179279</t>
-  </si>
-  <si>
-    <t>149026564</t>
-  </si>
-  <si>
-    <t>35277</t>
-  </si>
-  <si>
-    <t>animal model</t>
-  </si>
-  <si>
-    <t>120261738</t>
-  </si>
-  <si>
-    <t>160515332</t>
-  </si>
-  <si>
-    <t>3204683</t>
-  </si>
-  <si>
-    <t>management procedure</t>
-  </si>
-  <si>
-    <t>Activities &amp; Behaviors</t>
-  </si>
-  <si>
-    <t>131968678</t>
-  </si>
-  <si>
-    <t>132323305</t>
-  </si>
-  <si>
-    <t>3072277</t>
-  </si>
-  <si>
-    <t>antimicrobial susceptibility</t>
-  </si>
-  <si>
-    <t>147192814</t>
-  </si>
-  <si>
-    <t>169214515</t>
-  </si>
-  <si>
-    <t>191695443</t>
-  </si>
-  <si>
-    <t>126962880</t>
-  </si>
-  <si>
-    <t>3070977</t>
-  </si>
-  <si>
-    <t>possible pregnancy (finding)</t>
-  </si>
-  <si>
-    <t>134629352</t>
-  </si>
-  <si>
-    <t>131924415</t>
-  </si>
-  <si>
-    <t>2875245</t>
-  </si>
-  <si>
-    <t>stimulation procedure</t>
-  </si>
-  <si>
-    <t>133842410</t>
-  </si>
-  <si>
-    <t>136694420</t>
-  </si>
-  <si>
-    <t>2506281</t>
-  </si>
-  <si>
-    <t>adverse effects</t>
-  </si>
-  <si>
-    <t>189125612</t>
-  </si>
-  <si>
-    <t>120265069</t>
-  </si>
-  <si>
-    <t>179883568</t>
-  </si>
-  <si>
-    <t>124264808</t>
-  </si>
-  <si>
-    <t>131800904</t>
-  </si>
-  <si>
-    <t>171355558</t>
-  </si>
-  <si>
-    <t>156888593</t>
-  </si>
-  <si>
-    <t>191774102</t>
-  </si>
-  <si>
-    <t>2406105</t>
-  </si>
-  <si>
-    <t>participant</t>
-  </si>
-  <si>
-    <t>124426438</t>
-  </si>
-  <si>
-    <t>174116513</t>
-  </si>
-  <si>
-    <t>222848</t>
-  </si>
-  <si>
-    <t>analgesics</t>
-  </si>
-  <si>
-    <t>149659823</t>
-  </si>
-  <si>
-    <t>124929118</t>
-  </si>
-  <si>
-    <t>1074935</t>
-  </si>
-  <si>
-    <t>traumatic injury</t>
-  </si>
-  <si>
-    <t>135680374</t>
-  </si>
-  <si>
-    <t>131073042</t>
-  </si>
-  <si>
-    <t>84764</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>Physiology</t>
-  </si>
-  <si>
-    <t>155825257</t>
-  </si>
-  <si>
-    <t>133570301</t>
-  </si>
-  <si>
-    <t>124449149</t>
-  </si>
-  <si>
-    <t>836626</t>
-  </si>
-  <si>
-    <t>sodium chloride</t>
-  </si>
-  <si>
-    <t>151448508</t>
-  </si>
-  <si>
-    <t>127558016</t>
-  </si>
-  <si>
-    <t>124945476</t>
-  </si>
-  <si>
-    <t>5648475</t>
-  </si>
-  <si>
-    <t>vasodilation</t>
-  </si>
-  <si>
-    <t>131124692</t>
-  </si>
-  <si>
-    <t>122887749</t>
-  </si>
-  <si>
-    <t>5648228</t>
-  </si>
-  <si>
-    <t>therapeutic procedure</t>
-  </si>
-  <si>
-    <t>122512073</t>
-  </si>
-  <si>
-    <t>152132019</t>
-  </si>
-  <si>
-    <t>163450585</t>
-  </si>
-  <si>
-    <t>117506178</t>
-  </si>
-  <si>
-    <t>122512028</t>
-  </si>
-  <si>
-    <t>121767226</t>
-  </si>
-  <si>
-    <t>117966890</t>
-  </si>
-  <si>
-    <t>188170423</t>
-  </si>
-  <si>
-    <t>118125398</t>
-  </si>
-  <si>
-    <t>118176436</t>
-  </si>
-  <si>
-    <t>171037091</t>
-  </si>
-  <si>
-    <t>complicates</t>
-  </si>
-  <si>
-    <t>118418351</t>
-  </si>
-  <si>
-    <t>189534553</t>
-  </si>
-  <si>
-    <t>136662443</t>
-  </si>
-  <si>
-    <t>118781199</t>
-  </si>
-  <si>
-    <t>5647992</t>
-  </si>
-  <si>
-    <t>cavia</t>
-  </si>
-  <si>
-    <t>126599391</t>
-  </si>
-  <si>
-    <t>126599660</t>
-  </si>
-  <si>
-    <t>140458635</t>
-  </si>
-  <si>
-    <t>140363833</t>
-  </si>
-  <si>
-    <t>544027</t>
-  </si>
-  <si>
-    <t>kidney</t>
-  </si>
-  <si>
-    <t>153116813</t>
-  </si>
-  <si>
-    <t>162453766</t>
-  </si>
-  <si>
-    <t>147742329</t>
-  </si>
-  <si>
-    <t>5102415</t>
-  </si>
-  <si>
-    <t>anti-arrhythmia agents</t>
-  </si>
-  <si>
-    <t>125552256</t>
-  </si>
-  <si>
-    <t>134744650</t>
-  </si>
-  <si>
-    <t>149262052</t>
-  </si>
-  <si>
-    <t>143225704</t>
-  </si>
-  <si>
-    <t>140589298</t>
-  </si>
-  <si>
-    <t>199386829</t>
-  </si>
-  <si>
-    <t>143225632</t>
-  </si>
-  <si>
-    <t>128045744</t>
-  </si>
-  <si>
-    <t>119994309</t>
-  </si>
-  <si>
-    <t>118021518</t>
-  </si>
-  <si>
-    <t>130142380</t>
-  </si>
-  <si>
-    <t>154519224</t>
-  </si>
-  <si>
-    <t>152132251</t>
-  </si>
-  <si>
-    <t>144430847</t>
-  </si>
-  <si>
-    <t>152829034</t>
-  </si>
-  <si>
-    <t>4964514</t>
-  </si>
-  <si>
-    <t>perindopril</t>
-  </si>
-  <si>
-    <t>163812404</t>
-  </si>
-  <si>
-    <t>149200456</t>
-  </si>
-  <si>
-    <t>492799</t>
-  </si>
-  <si>
-    <t>propafenone</t>
-  </si>
-  <si>
-    <t>144857579</t>
-  </si>
-  <si>
-    <t>122016067</t>
-  </si>
-  <si>
-    <t>122016956</t>
-  </si>
-  <si>
-    <t>153542645</t>
-  </si>
-  <si>
-    <t>155754448</t>
-  </si>
-  <si>
-    <t>is not higher than</t>
-  </si>
-  <si>
-    <t>140400539</t>
-  </si>
-  <si>
-    <t>122016909</t>
-  </si>
-  <si>
-    <t>152829596</t>
-  </si>
-  <si>
-    <t>4877776</t>
-  </si>
-  <si>
-    <t>rattus norvegicus</t>
-  </si>
-  <si>
-    <t>124452415</t>
-  </si>
-  <si>
-    <t>171700749</t>
-  </si>
-  <si>
-    <t>129271892</t>
-  </si>
-  <si>
-    <t>140458735</t>
-  </si>
-  <si>
-    <t>118414436</t>
-  </si>
-  <si>
-    <t>45119</t>
-  </si>
-  <si>
-    <t>inflammation</t>
-  </si>
-  <si>
-    <t>167318185</t>
-  </si>
-  <si>
-    <t>125831501</t>
-  </si>
-  <si>
-    <t>4047989</t>
-  </si>
-  <si>
-    <t>liver</t>
-  </si>
-  <si>
-    <t>129214884</t>
-  </si>
-  <si>
-    <t>139136453</t>
-  </si>
-  <si>
-    <t>200080622</t>
-  </si>
-  <si>
-    <t>4042108</t>
-  </si>
-  <si>
-    <t>erythromycin</t>
-  </si>
-  <si>
-    <t>175616608</t>
-  </si>
-  <si>
-    <t>128745284</t>
-  </si>
-  <si>
-    <t>4041622</t>
-  </si>
-  <si>
-    <t>felis catus</t>
-  </si>
-  <si>
-    <t>175998979</t>
-  </si>
-  <si>
-    <t>142596799</t>
-  </si>
-  <si>
-    <t>4040861</t>
-  </si>
-  <si>
-    <t>complication</t>
-  </si>
-  <si>
-    <t>172775678</t>
-  </si>
-  <si>
-    <t>197236995</t>
-  </si>
-  <si>
-    <t>178730441</t>
-  </si>
-  <si>
-    <t>198201495</t>
-  </si>
-  <si>
-    <t>3815826</t>
-  </si>
-  <si>
-    <t>thyroid diseases</t>
-  </si>
-  <si>
-    <t>199195367</t>
-  </si>
-  <si>
-    <t>126185433</t>
-  </si>
-  <si>
-    <t>3815757</t>
-  </si>
-  <si>
-    <t>treatment protocols</t>
-  </si>
-  <si>
-    <t>162277509</t>
-  </si>
-  <si>
-    <t>136072424</t>
-  </si>
-  <si>
-    <t>122693583</t>
-  </si>
-  <si>
-    <t>198208847</t>
-  </si>
-  <si>
-    <t>3814288</t>
-  </si>
-  <si>
-    <t>sheep</t>
-  </si>
-  <si>
-    <t>174014088</t>
-  </si>
-  <si>
-    <t>141032671</t>
+    <t>94252463</t>
+  </si>
+  <si>
+    <t>88938768</t>
+  </si>
+  <si>
+    <t>88939545</t>
+  </si>
+  <si>
+    <t>96563424</t>
+  </si>
+  <si>
+    <t>64426176</t>
+  </si>
+  <si>
+    <t>243455</t>
+  </si>
+  <si>
+    <t>obesity</t>
+  </si>
+  <si>
+    <t>69933893</t>
+  </si>
+  <si>
+    <t>53874908</t>
+  </si>
+  <si>
+    <t>243173</t>
+  </si>
+  <si>
+    <t>adrenergic alpha-antagonists</t>
+  </si>
+  <si>
+    <t>69339699</t>
+  </si>
+  <si>
+    <t>83517027</t>
   </si>
   <si>
     <t>3811276</t>
@@ -1874,13 +2063,13 @@
     <t>favor</t>
   </si>
   <si>
-    <t>158537548</t>
-  </si>
-  <si>
-    <t>140589162</t>
-  </si>
-  <si>
-    <t>182690294</t>
+    <t>74115712</t>
+  </si>
+  <si>
+    <t>92367470</t>
+  </si>
+  <si>
+    <t>116495466</t>
   </si>
   <si>
     <t>3763784</t>
@@ -1889,181 +2078,13 @@
     <t>recovery - action</t>
   </si>
   <si>
-    <t>117684716</t>
-  </si>
-  <si>
-    <t>182971000</t>
-  </si>
-  <si>
-    <t>143498573</t>
-  </si>
-  <si>
-    <t>3763552</t>
-  </si>
-  <si>
-    <t>individual</t>
-  </si>
-  <si>
-    <t>170830323</t>
-  </si>
-  <si>
-    <t>167454293</t>
-  </si>
-  <si>
-    <t>136231854</t>
-  </si>
-  <si>
-    <t>3743476</t>
-  </si>
-  <si>
-    <t>onset of illness</t>
-  </si>
-  <si>
-    <t>Concepts &amp; Ideas</t>
-  </si>
-  <si>
-    <t>156091923</t>
-  </si>
-  <si>
-    <t>139183893</t>
-  </si>
-  <si>
-    <t>3730810</t>
-  </si>
-  <si>
-    <t>dysplasia, nos</t>
-  </si>
-  <si>
-    <t>199345515</t>
-  </si>
-  <si>
-    <t>128113235</t>
-  </si>
-  <si>
-    <t>355837</t>
-  </si>
-  <si>
-    <t>ziprasidone</t>
-  </si>
-  <si>
-    <t>138732830</t>
-  </si>
-  <si>
-    <t>188940190</t>
-  </si>
-  <si>
-    <t>3247256</t>
-  </si>
-  <si>
-    <t>entire limb</t>
-  </si>
-  <si>
-    <t>125935180</t>
-  </si>
-  <si>
-    <t>164511184</t>
-  </si>
-  <si>
-    <t>3131611</t>
-  </si>
-  <si>
-    <t>observation parameter</t>
-  </si>
-  <si>
-    <t>138638127</t>
-  </si>
-  <si>
-    <t>162446175</t>
-  </si>
-  <si>
-    <t>140666304</t>
-  </si>
-  <si>
-    <t>132913394</t>
-  </si>
-  <si>
-    <t>2986464</t>
-  </si>
-  <si>
-    <t>injection procedure</t>
-  </si>
-  <si>
-    <t>124131725</t>
-  </si>
-  <si>
-    <t>130326547</t>
-  </si>
-  <si>
-    <t>158100493</t>
-  </si>
-  <si>
-    <t>131259476</t>
-  </si>
-  <si>
-    <t>2972331</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>121376132</t>
-  </si>
-  <si>
-    <t>153473884</t>
-  </si>
-  <si>
-    <t>142500887</t>
-  </si>
-  <si>
-    <t>2940375</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>197331610</t>
-  </si>
-  <si>
-    <t>172777273</t>
-  </si>
-  <si>
-    <t>191113316</t>
-  </si>
-  <si>
-    <t>2511284</t>
-  </si>
-  <si>
-    <t>induction procedure</t>
-  </si>
-  <si>
-    <t>173307440</t>
-  </si>
-  <si>
-    <t>126578940</t>
-  </si>
-  <si>
-    <t>243455</t>
-  </si>
-  <si>
-    <t>obesity</t>
-  </si>
-  <si>
-    <t>136415154</t>
-  </si>
-  <si>
-    <t>120191030</t>
-  </si>
-  <si>
-    <t>243173</t>
-  </si>
-  <si>
-    <t>adrenergic alpha-antagonists</t>
-  </si>
-  <si>
-    <t>132991760</t>
-  </si>
-  <si>
-    <t>149935803</t>
+    <t>51481767</t>
+  </si>
+  <si>
+    <t>116774449</t>
+  </si>
+  <si>
+    <t>77060152</t>
   </si>
 </sst>
 </file>
@@ -2268,7 +2289,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1332.0</v>
+        <v>124.0</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -2313,37 +2334,79 @@
         <v>63</v>
       </c>
       <c r="P2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>65</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>66</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>67</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>68</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>69</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>70</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y2" t="s">
         <v>71</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA2" t="s">
         <v>72</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>73</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>74</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
@@ -2360,13 +2423,13 @@
         <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s">
         <v>56</v>
@@ -2378,16 +2441,16 @@
         <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="M3" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="N3" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
@@ -2404,10 +2467,10 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G4" t="s">
         <v>58</v>
@@ -2422,21 +2485,21 @@
         <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="N4" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>45.0</v>
+        <v>41.0</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -2448,10 +2511,10 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G5" t="s">
         <v>58</v>
@@ -2466,28 +2529,22 @@
         <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="P5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>92</v>
-      </c>
-      <c r="R5" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6">
@@ -2504,10 +2561,10 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G6" t="s">
         <v>58</v>
@@ -2522,22 +2579,28 @@
         <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="M6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="O6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="P6" t="s">
-        <v>93</v>
+        <v>81</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>108</v>
+      </c>
+      <c r="R6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="7">
@@ -2554,13 +2617,13 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s">
         <v>56</v>
@@ -2572,22 +2635,22 @@
         <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="L7" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="M7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="N7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="O7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="P7" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -2604,13 +2667,13 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="G8" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
         <v>56</v>
@@ -2622,16 +2685,16 @@
         <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="L8" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="M8" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="N8" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
@@ -2648,10 +2711,10 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G9" t="s">
         <v>58</v>
@@ -2666,16 +2729,16 @@
         <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="N9" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
@@ -2692,10 +2755,10 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G10" t="s">
         <v>58</v>
@@ -2710,16 +2773,16 @@
         <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L10" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="M10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="N10" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
@@ -2736,10 +2799,10 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>
@@ -2754,22 +2817,22 @@
         <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="M11" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="O11" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="P11" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12">
@@ -2786,13 +2849,13 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s">
         <v>56</v>
@@ -2804,28 +2867,28 @@
         <v>58</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="M12" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="N12" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="O12" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="P12" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="Q12" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="R12" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
@@ -2842,13 +2905,13 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="G13" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
         <v>56</v>
@@ -2860,21 +2923,21 @@
         <v>58</v>
       </c>
       <c r="K13" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="M13" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="N13" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="B14" t="s">
         <v>50</v>
@@ -2886,10 +2949,10 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
         <v>58</v>
@@ -2904,21 +2967,33 @@
         <v>58</v>
       </c>
       <c r="K14" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="L14" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="M14" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="N14" t="s">
-        <v>139</v>
+        <v>99</v>
+      </c>
+      <c r="O14" t="s">
+        <v>146</v>
+      </c>
+      <c r="P14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>147</v>
+      </c>
+      <c r="R14" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="B15" t="s">
         <v>50</v>
@@ -2930,10 +3005,10 @@
         <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
         <v>52</v>
@@ -2948,76 +3023,76 @@
         <v>58</v>
       </c>
       <c r="K15" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="M15" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="N15" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="O15" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="P15" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="Q15" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="R15" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="S15" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="T15" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="U15" t="s">
+        <v>157</v>
+      </c>
+      <c r="V15" t="s">
+        <v>158</v>
+      </c>
+      <c r="W15" t="s">
+        <v>159</v>
+      </c>
+      <c r="X15" t="s">
         <v>148</v>
       </c>
-      <c r="V15" t="s">
-        <v>147</v>
-      </c>
-      <c r="W15" t="s">
-        <v>149</v>
-      </c>
-      <c r="X15" t="s">
-        <v>150</v>
-      </c>
       <c r="Y15" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="Z15" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="AA15" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="AB15" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="AC15" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="AD15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AE15" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="AF15" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c r="AG15" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="AH15" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
@@ -3034,13 +3109,13 @@
         <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F16" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H16" t="s">
         <v>56</v>
@@ -3052,22 +3127,16 @@
         <v>58</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="L16" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="M16" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="N16" t="s">
-        <v>139</v>
-      </c>
-      <c r="O16" t="s">
-        <v>162</v>
-      </c>
-      <c r="P16" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17">
@@ -3084,10 +3153,10 @@
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G17" t="s">
         <v>52</v>
@@ -3102,28 +3171,22 @@
         <v>58</v>
       </c>
       <c r="K17" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M17" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="N17" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="O17" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P17" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>169</v>
-      </c>
-      <c r="R17" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18">
@@ -3140,13 +3203,13 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F18" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H18" t="s">
         <v>56</v>
@@ -3158,16 +3221,46 @@
         <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="L18" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="M18" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="N18" t="s">
-        <v>83</v>
+        <v>179</v>
+      </c>
+      <c r="O18" t="s">
+        <v>180</v>
+      </c>
+      <c r="P18" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>181</v>
+      </c>
+      <c r="R18" t="s">
+        <v>77</v>
+      </c>
+      <c r="S18" t="s">
+        <v>182</v>
+      </c>
+      <c r="T18" t="s">
+        <v>99</v>
+      </c>
+      <c r="U18" t="s">
+        <v>183</v>
+      </c>
+      <c r="V18" t="s">
+        <v>73</v>
+      </c>
+      <c r="W18" t="s">
+        <v>184</v>
+      </c>
+      <c r="X18" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="19">
@@ -3184,10 +3277,10 @@
         <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="G19" t="s">
         <v>52</v>
@@ -3202,34 +3295,28 @@
         <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="M19" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="N19" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c r="O19" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="P19" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="Q19" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="R19" t="s">
-        <v>91</v>
-      </c>
-      <c r="S19" t="s">
-        <v>180</v>
-      </c>
-      <c r="T19" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20">
@@ -3246,13 +3333,13 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="F20" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="G20" t="s">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="H20" t="s">
         <v>56</v>
@@ -3264,27 +3351,21 @@
         <v>58</v>
       </c>
       <c r="K20" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="M20" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="N20" t="s">
-        <v>186</v>
-      </c>
-      <c r="O20" t="s">
-        <v>187</v>
-      </c>
-      <c r="P20" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
@@ -3296,13 +3377,13 @@
         <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F21" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="G21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H21" t="s">
         <v>56</v>
@@ -3314,27 +3395,39 @@
         <v>58</v>
       </c>
       <c r="K21" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="M21" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="N21" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="O21" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="P21" t="s">
-        <v>70</v>
+        <v>158</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>201</v>
+      </c>
+      <c r="R21" t="s">
+        <v>81</v>
+      </c>
+      <c r="S21" t="s">
+        <v>202</v>
+      </c>
+      <c r="T21" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="B22" t="s">
         <v>50</v>
@@ -3346,13 +3439,13 @@
         <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F22" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>205</v>
       </c>
       <c r="H22" t="s">
         <v>56</v>
@@ -3364,33 +3457,27 @@
         <v>58</v>
       </c>
       <c r="K22" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="L22" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="M22" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="N22" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="O22" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="P22" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>200</v>
-      </c>
-      <c r="R22" t="s">
-        <v>139</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="B23" t="s">
         <v>50</v>
@@ -3402,13 +3489,13 @@
         <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F23" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="G23" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s">
         <v>56</v>
@@ -3420,27 +3507,27 @@
         <v>58</v>
       </c>
       <c r="K23" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="M23" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="N23" t="s">
-        <v>64</v>
+        <v>214</v>
       </c>
       <c r="O23" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="P23" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="B24" t="s">
         <v>50</v>
@@ -3452,13 +3539,13 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F24" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G24" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s">
         <v>56</v>
@@ -3470,21 +3557,27 @@
         <v>58</v>
       </c>
       <c r="K24" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="M24" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="N24" t="s">
-        <v>139</v>
+        <v>73</v>
+      </c>
+      <c r="O24" t="s">
+        <v>220</v>
+      </c>
+      <c r="P24" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
@@ -3496,13 +3589,13 @@
         <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="F25" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="G25" t="s">
-        <v>212</v>
+        <v>58</v>
       </c>
       <c r="H25" t="s">
         <v>56</v>
@@ -3514,21 +3607,21 @@
         <v>58</v>
       </c>
       <c r="K25" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s">
-        <v>193</v>
+        <v>73</v>
       </c>
       <c r="M25" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="N25" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="B26" t="s">
         <v>50</v>
@@ -3540,13 +3633,13 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F26" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="G26" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s">
         <v>56</v>
@@ -3558,51 +3651,39 @@
         <v>58</v>
       </c>
       <c r="K26" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="M26" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="N26" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="O26" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="P26" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="Q26" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="R26" t="s">
-        <v>87</v>
+        <v>231</v>
       </c>
       <c r="S26" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="T26" t="s">
-        <v>64</v>
-      </c>
-      <c r="U26" t="s">
-        <v>222</v>
-      </c>
-      <c r="V26" t="s">
-        <v>89</v>
-      </c>
-      <c r="W26" t="s">
-        <v>223</v>
-      </c>
-      <c r="X26" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="B27" t="s">
         <v>50</v>
@@ -3614,13 +3695,13 @@
         <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="F27" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H27" t="s">
         <v>56</v>
@@ -3632,27 +3713,129 @@
         <v>58</v>
       </c>
       <c r="K27" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="L27" t="s">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="M27" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="N27" t="s">
+        <v>148</v>
+      </c>
+      <c r="O27" t="s">
+        <v>237</v>
+      </c>
+      <c r="P27" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>238</v>
+      </c>
+      <c r="R27" t="s">
+        <v>148</v>
+      </c>
+      <c r="S27" t="s">
+        <v>239</v>
+      </c>
+      <c r="T27" t="s">
         <v>62</v>
       </c>
-      <c r="O27" t="s">
-        <v>228</v>
-      </c>
-      <c r="P27" t="s">
-        <v>70</v>
+      <c r="U27" t="s">
+        <v>240</v>
+      </c>
+      <c r="V27" t="s">
+        <v>62</v>
+      </c>
+      <c r="W27" t="s">
+        <v>241</v>
+      </c>
+      <c r="X27" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>246</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>248</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>249</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>250</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>251</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>252</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>253</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>254</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>255</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="B28" t="s">
         <v>50</v>
@@ -3664,13 +3847,13 @@
         <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="F28" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="G28" t="s">
-        <v>55</v>
+        <v>259</v>
       </c>
       <c r="H28" t="s">
         <v>56</v>
@@ -3682,27 +3865,21 @@
         <v>58</v>
       </c>
       <c r="K28" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="L28" t="s">
-        <v>64</v>
+        <v>214</v>
       </c>
       <c r="M28" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="N28" t="s">
-        <v>72</v>
-      </c>
-      <c r="O28" t="s">
-        <v>233</v>
-      </c>
-      <c r="P28" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B29" t="s">
         <v>50</v>
@@ -3714,13 +3891,13 @@
         <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="F29" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="G29" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s">
         <v>56</v>
@@ -3732,33 +3909,27 @@
         <v>58</v>
       </c>
       <c r="K29" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="L29" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="M29" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="N29" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="O29" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="P29" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>239</v>
-      </c>
-      <c r="R29" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B30" t="s">
         <v>50</v>
@@ -3770,13 +3941,13 @@
         <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="F30" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G30" t="s">
-        <v>212</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s">
         <v>56</v>
@@ -3788,28 +3959,22 @@
         <v>58</v>
       </c>
       <c r="K30" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="L30" t="s">
-        <v>193</v>
+        <v>73</v>
       </c>
       <c r="M30" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="N30" t="s">
-        <v>244</v>
+        <v>90</v>
       </c>
       <c r="O30" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="P30" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>246</v>
-      </c>
-      <c r="R30" t="s">
-        <v>193</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31">
@@ -3826,13 +3991,13 @@
         <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="F31" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="G31" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s">
         <v>56</v>
@@ -3844,16 +4009,28 @@
         <v>58</v>
       </c>
       <c r="K31" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="L31" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="M31" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="N31" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="O31" t="s">
+        <v>277</v>
+      </c>
+      <c r="P31" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>278</v>
+      </c>
+      <c r="R31" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="32">
@@ -3870,13 +4047,13 @@
         <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="F32" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="G32" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s">
         <v>56</v>
@@ -3888,33 +4065,57 @@
         <v>58</v>
       </c>
       <c r="K32" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s">
-        <v>89</v>
+        <v>282</v>
       </c>
       <c r="M32" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="N32" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="O32" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="P32" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="Q32" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="R32" t="s">
-        <v>139</v>
+        <v>77</v>
+      </c>
+      <c r="S32" t="s">
+        <v>286</v>
+      </c>
+      <c r="T32" t="s">
+        <v>90</v>
+      </c>
+      <c r="U32" t="s">
+        <v>287</v>
+      </c>
+      <c r="V32" t="s">
+        <v>231</v>
+      </c>
+      <c r="W32" t="s">
+        <v>288</v>
+      </c>
+      <c r="X32" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B33" t="s">
         <v>50</v>
@@ -3926,13 +4127,13 @@
         <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="F33" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="G33" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s">
         <v>56</v>
@@ -3944,27 +4145,27 @@
         <v>58</v>
       </c>
       <c r="K33" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="L33" t="s">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="M33" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="N33" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="O33" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="P33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B34" t="s">
         <v>50</v>
@@ -3976,13 +4177,13 @@
         <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="F34" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="G34" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s">
         <v>56</v>
@@ -3994,22 +4195,16 @@
         <v>58</v>
       </c>
       <c r="K34" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="L34" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="M34" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="N34" t="s">
-        <v>64</v>
-      </c>
-      <c r="O34" t="s">
-        <v>266</v>
-      </c>
-      <c r="P34" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35">
@@ -4026,13 +4221,13 @@
         <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="F35" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="G35" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H35" t="s">
         <v>56</v>
@@ -4044,28 +4239,22 @@
         <v>58</v>
       </c>
       <c r="K35" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="L35" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="M35" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="N35" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="O35" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="P35" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>273</v>
-      </c>
-      <c r="R35" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
@@ -4082,10 +4271,10 @@
         <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="F36" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="G36" t="s">
         <v>58</v>
@@ -4100,16 +4289,28 @@
         <v>58</v>
       </c>
       <c r="K36" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="L36" t="s">
-        <v>64</v>
+        <v>308</v>
       </c>
       <c r="M36" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="N36" t="s">
-        <v>93</v>
+        <v>179</v>
+      </c>
+      <c r="O36" t="s">
+        <v>310</v>
+      </c>
+      <c r="P36" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>311</v>
+      </c>
+      <c r="R36" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="37">
@@ -4126,10 +4327,10 @@
         <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="F37" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="G37" t="s">
         <v>55</v>
@@ -4144,39 +4345,51 @@
         <v>58</v>
       </c>
       <c r="K37" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="L37" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M37" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="N37" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="O37" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="P37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q37" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="R37" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="S37" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="T37" t="s">
-        <v>72</v>
+        <v>81</v>
+      </c>
+      <c r="U37" t="s">
+        <v>319</v>
+      </c>
+      <c r="V37" t="s">
+        <v>79</v>
+      </c>
+      <c r="W37" t="s">
+        <v>320</v>
+      </c>
+      <c r="X37" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B38" t="s">
         <v>50</v>
@@ -4188,10 +4401,10 @@
         <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="F38" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="G38" t="s">
         <v>55</v>
@@ -4206,33 +4419,33 @@
         <v>58</v>
       </c>
       <c r="K38" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="L38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M38" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="N38" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="O38" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="P38" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="Q38" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="R38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="B39" t="s">
         <v>50</v>
@@ -4244,13 +4457,13 @@
         <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="F39" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="G39" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H39" t="s">
         <v>56</v>
@@ -4262,21 +4475,21 @@
         <v>58</v>
       </c>
       <c r="K39" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="L39" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="M39" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="N39" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B40" t="s">
         <v>50</v>
@@ -4288,13 +4501,13 @@
         <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="F40" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="G40" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H40" t="s">
         <v>56</v>
@@ -4306,16 +4519,28 @@
         <v>58</v>
       </c>
       <c r="K40" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="L40" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="M40" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="N40" t="s">
-        <v>89</v>
+        <v>69</v>
+      </c>
+      <c r="O40" t="s">
+        <v>335</v>
+      </c>
+      <c r="P40" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>336</v>
+      </c>
+      <c r="R40" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="41">
@@ -4332,13 +4557,13 @@
         <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="F41" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="G41" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s">
         <v>56</v>
@@ -4350,22 +4575,16 @@
         <v>58</v>
       </c>
       <c r="K41" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="L41" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="M41" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="N41" t="s">
-        <v>62</v>
-      </c>
-      <c r="O41" t="s">
-        <v>303</v>
-      </c>
-      <c r="P41" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42">
@@ -4382,13 +4601,13 @@
         <v>52</v>
       </c>
       <c r="E42" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="F42" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="G42" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H42" t="s">
         <v>56</v>
@@ -4400,16 +4619,22 @@
         <v>58</v>
       </c>
       <c r="K42" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="L42" t="s">
-        <v>244</v>
+        <v>67</v>
       </c>
       <c r="M42" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="N42" t="s">
-        <v>93</v>
+        <v>73</v>
+      </c>
+      <c r="O42" t="s">
+        <v>345</v>
+      </c>
+      <c r="P42" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="43">
@@ -4426,13 +4651,13 @@
         <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="F43" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="G43" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="H43" t="s">
         <v>56</v>
@@ -4444,16 +4669,16 @@
         <v>58</v>
       </c>
       <c r="K43" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="L43" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="M43" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="N43" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44">
@@ -4470,13 +4695,13 @@
         <v>52</v>
       </c>
       <c r="E44" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="F44" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="G44" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s">
         <v>56</v>
@@ -4488,16 +4713,28 @@
         <v>58</v>
       </c>
       <c r="K44" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="L44" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="M44" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="N44" t="s">
-        <v>89</v>
+        <v>112</v>
+      </c>
+      <c r="O44" t="s">
+        <v>354</v>
+      </c>
+      <c r="P44" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>355</v>
+      </c>
+      <c r="R44" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="45">
@@ -4514,10 +4751,10 @@
         <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="F45" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="G45" t="s">
         <v>58</v>
@@ -4532,39 +4769,21 @@
         <v>58</v>
       </c>
       <c r="K45" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="L45" t="s">
-        <v>319</v>
+        <v>251</v>
       </c>
       <c r="M45" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="N45" t="s">
-        <v>64</v>
-      </c>
-      <c r="O45" t="s">
-        <v>321</v>
-      </c>
-      <c r="P45" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>322</v>
-      </c>
-      <c r="R45" t="s">
-        <v>139</v>
-      </c>
-      <c r="S45" t="s">
-        <v>323</v>
-      </c>
-      <c r="T45" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B46" t="s">
         <v>50</v>
@@ -4576,13 +4795,13 @@
         <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="F46" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="G46" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H46" t="s">
         <v>56</v>
@@ -4594,27 +4813,21 @@
         <v>58</v>
       </c>
       <c r="K46" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="L46" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="M46" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="N46" t="s">
-        <v>155</v>
-      </c>
-      <c r="O46" t="s">
-        <v>328</v>
-      </c>
-      <c r="P46" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B47" t="s">
         <v>50</v>
@@ -4626,10 +4839,10 @@
         <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="F47" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="G47" t="s">
         <v>55</v>
@@ -4644,27 +4857,21 @@
         <v>58</v>
       </c>
       <c r="K47" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="L47" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M47" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="N47" t="s">
-        <v>70</v>
-      </c>
-      <c r="O47" t="s">
-        <v>333</v>
-      </c>
-      <c r="P47" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B48" t="s">
         <v>50</v>
@@ -4676,13 +4883,13 @@
         <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="F48" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="G48" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H48" t="s">
         <v>56</v>
@@ -4694,28 +4901,34 @@
         <v>58</v>
       </c>
       <c r="K48" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="L48" t="s">
-        <v>155</v>
+        <v>255</v>
       </c>
       <c r="M48" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="N48" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="O48" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="P48" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="Q48" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="R48" t="s">
-        <v>89</v>
+        <v>148</v>
+      </c>
+      <c r="S48" t="s">
+        <v>374</v>
+      </c>
+      <c r="T48" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="49">
@@ -4732,10 +4945,10 @@
         <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="F49" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="G49" t="s">
         <v>52</v>
@@ -4750,70 +4963,22 @@
         <v>58</v>
       </c>
       <c r="K49" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="L49" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="M49" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="N49" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="O49" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="P49" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>345</v>
-      </c>
-      <c r="R49" t="s">
-        <v>123</v>
-      </c>
-      <c r="S49" t="s">
-        <v>346</v>
-      </c>
-      <c r="T49" t="s">
-        <v>121</v>
-      </c>
-      <c r="U49" t="s">
-        <v>347</v>
-      </c>
-      <c r="V49" t="s">
-        <v>123</v>
-      </c>
-      <c r="W49" t="s">
-        <v>348</v>
-      </c>
-      <c r="X49" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>349</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>350</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>351</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE49" t="s">
-        <v>352</v>
-      </c>
-      <c r="AF49" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50">
@@ -4830,13 +4995,13 @@
         <v>52</v>
       </c>
       <c r="E50" t="s">
-        <v>353</v>
+        <v>380</v>
       </c>
       <c r="F50" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="G50" t="s">
-        <v>212</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s">
         <v>56</v>
@@ -4848,52 +5013,22 @@
         <v>58</v>
       </c>
       <c r="K50" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="L50" t="s">
-        <v>356</v>
+        <v>73</v>
       </c>
       <c r="M50" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="N50" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="O50" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="P50" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>359</v>
-      </c>
-      <c r="R50" t="s">
-        <v>360</v>
-      </c>
-      <c r="S50" t="s">
-        <v>361</v>
-      </c>
-      <c r="T50" t="s">
-        <v>244</v>
-      </c>
-      <c r="U50" t="s">
-        <v>362</v>
-      </c>
-      <c r="V50" t="s">
-        <v>272</v>
-      </c>
-      <c r="W50" t="s">
-        <v>363</v>
-      </c>
-      <c r="X50" t="s">
-        <v>364</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>365</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>193</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51">
@@ -4910,10 +5045,10 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="F51" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="G51" t="s">
         <v>52</v>
@@ -4928,124 +5063,28 @@
         <v>58</v>
       </c>
       <c r="K51" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="L51" t="s">
-        <v>369</v>
+        <v>153</v>
       </c>
       <c r="M51" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="N51" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O51" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="P51" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="Q51" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="R51" t="s">
-        <v>147</v>
-      </c>
-      <c r="S51" t="s">
-        <v>373</v>
-      </c>
-      <c r="T51" t="s">
-        <v>155</v>
-      </c>
-      <c r="U51" t="s">
-        <v>374</v>
-      </c>
-      <c r="V51" t="s">
-        <v>123</v>
-      </c>
-      <c r="W51" t="s">
-        <v>375</v>
-      </c>
-      <c r="X51" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>376</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>377</v>
-      </c>
-      <c r="AB51" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC51" t="s">
-        <v>378</v>
-      </c>
-      <c r="AD51" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE51" t="s">
-        <v>379</v>
-      </c>
-      <c r="AF51" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG51" t="s">
-        <v>380</v>
-      </c>
-      <c r="AH51" t="s">
-        <v>186</v>
-      </c>
-      <c r="AI51" t="s">
-        <v>381</v>
-      </c>
-      <c r="AJ51" t="s">
-        <v>369</v>
-      </c>
-      <c r="AK51" t="s">
-        <v>382</v>
-      </c>
-      <c r="AL51" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM51" t="s">
-        <v>383</v>
-      </c>
-      <c r="AN51" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO51" t="s">
-        <v>384</v>
-      </c>
-      <c r="AP51" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ51" t="s">
-        <v>385</v>
-      </c>
-      <c r="AR51" t="s">
-        <v>244</v>
-      </c>
-      <c r="AS51" t="s">
-        <v>386</v>
-      </c>
-      <c r="AT51" t="s">
-        <v>387</v>
-      </c>
-      <c r="AU51" t="s">
-        <v>388</v>
-      </c>
-      <c r="AV51" t="s">
-        <v>319</v>
-      </c>
-      <c r="AW51" t="s">
-        <v>389</v>
-      </c>
-      <c r="AX51" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52">
@@ -5062,13 +5101,13 @@
         <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F52" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G52" t="s">
-        <v>212</v>
+        <v>52</v>
       </c>
       <c r="H52" t="s">
         <v>56</v>
@@ -5080,16 +5119,70 @@
         <v>58</v>
       </c>
       <c r="K52" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L52" t="s">
-        <v>193</v>
+        <v>65</v>
       </c>
       <c r="M52" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N52" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="O52" t="s">
+        <v>395</v>
+      </c>
+      <c r="P52" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>396</v>
+      </c>
+      <c r="R52" t="s">
+        <v>65</v>
+      </c>
+      <c r="S52" t="s">
+        <v>397</v>
+      </c>
+      <c r="T52" t="s">
+        <v>153</v>
+      </c>
+      <c r="U52" t="s">
+        <v>398</v>
+      </c>
+      <c r="V52" t="s">
+        <v>158</v>
+      </c>
+      <c r="W52" t="s">
+        <v>399</v>
+      </c>
+      <c r="X52" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>400</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>401</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>402</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>403</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="53">
@@ -5106,13 +5199,13 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="F53" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="G53" t="s">
-        <v>58</v>
+        <v>259</v>
       </c>
       <c r="H53" t="s">
         <v>56</v>
@@ -5124,16 +5217,16 @@
         <v>58</v>
       </c>
       <c r="K53" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="L53" t="s">
-        <v>64</v>
+        <v>214</v>
       </c>
       <c r="M53" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="N53" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54">
@@ -5150,13 +5243,13 @@
         <v>52</v>
       </c>
       <c r="E54" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="F54" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="G54" t="s">
-        <v>212</v>
+        <v>58</v>
       </c>
       <c r="H54" t="s">
         <v>56</v>
@@ -5168,16 +5261,16 @@
         <v>58</v>
       </c>
       <c r="K54" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="L54" t="s">
-        <v>193</v>
+        <v>73</v>
       </c>
       <c r="M54" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="N54" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55">
@@ -5194,13 +5287,13 @@
         <v>52</v>
       </c>
       <c r="E55" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="F55" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="G55" t="s">
-        <v>55</v>
+        <v>259</v>
       </c>
       <c r="H55" t="s">
         <v>56</v>
@@ -5212,21 +5305,21 @@
         <v>58</v>
       </c>
       <c r="K55" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="L55" t="s">
-        <v>62</v>
+        <v>214</v>
       </c>
       <c r="M55" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="N55" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B56" t="s">
         <v>50</v>
@@ -5238,13 +5331,13 @@
         <v>52</v>
       </c>
       <c r="E56" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="F56" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="G56" t="s">
-        <v>212</v>
+        <v>58</v>
       </c>
       <c r="H56" t="s">
         <v>56</v>
@@ -5256,33 +5349,33 @@
         <v>58</v>
       </c>
       <c r="K56" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="L56" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="M56" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="N56" t="s">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="O56" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="P56" t="s">
-        <v>364</v>
+        <v>148</v>
       </c>
       <c r="Q56" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="R56" t="s">
-        <v>364</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B57" t="s">
         <v>50</v>
@@ -5294,13 +5387,13 @@
         <v>52</v>
       </c>
       <c r="E57" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="F57" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="G57" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s">
         <v>56</v>
@@ -5312,16 +5405,16 @@
         <v>58</v>
       </c>
       <c r="K57" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="L57" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="M57" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="N57" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58">
@@ -5338,13 +5431,13 @@
         <v>52</v>
       </c>
       <c r="E58" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="F58" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="G58" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s">
         <v>56</v>
@@ -5356,16 +5449,16 @@
         <v>58</v>
       </c>
       <c r="K58" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="L58" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="M58" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="N58" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59">
@@ -5382,13 +5475,13 @@
         <v>52</v>
       </c>
       <c r="E59" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="F59" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G59" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H59" t="s">
         <v>56</v>
@@ -5400,28 +5493,16 @@
         <v>58</v>
       </c>
       <c r="K59" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="L59" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="M59" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="N59" t="s">
-        <v>87</v>
-      </c>
-      <c r="O59" t="s">
-        <v>425</v>
-      </c>
-      <c r="P59" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>426</v>
-      </c>
-      <c r="R59" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60">
@@ -5438,13 +5519,13 @@
         <v>52</v>
       </c>
       <c r="E60" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="F60" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="G60" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H60" t="s">
         <v>56</v>
@@ -5456,16 +5537,28 @@
         <v>58</v>
       </c>
       <c r="K60" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="L60" t="s">
-        <v>64</v>
+        <v>190</v>
       </c>
       <c r="M60" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="N60" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="O60" t="s">
+        <v>438</v>
+      </c>
+      <c r="P60" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>439</v>
+      </c>
+      <c r="R60" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="61">
@@ -5482,13 +5575,13 @@
         <v>52</v>
       </c>
       <c r="E61" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="F61" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="G61" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H61" t="s">
         <v>56</v>
@@ -5500,22 +5593,16 @@
         <v>58</v>
       </c>
       <c r="K61" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="L61" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="M61" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="N61" t="s">
-        <v>87</v>
-      </c>
-      <c r="O61" t="s">
-        <v>435</v>
-      </c>
-      <c r="P61" t="s">
-        <v>360</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62">
@@ -5532,13 +5619,13 @@
         <v>52</v>
       </c>
       <c r="E62" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="F62" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="G62" t="s">
-        <v>106</v>
+        <v>259</v>
       </c>
       <c r="H62" t="s">
         <v>56</v>
@@ -5550,16 +5637,28 @@
         <v>58</v>
       </c>
       <c r="K62" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="L62" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="M62" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="N62" t="s">
-        <v>64</v>
+        <v>251</v>
+      </c>
+      <c r="O62" t="s">
+        <v>448</v>
+      </c>
+      <c r="P62" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>449</v>
+      </c>
+      <c r="R62" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="63">
@@ -5576,13 +5675,13 @@
         <v>52</v>
       </c>
       <c r="E63" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="F63" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="G63" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="H63" t="s">
         <v>56</v>
@@ -5594,46 +5693,22 @@
         <v>58</v>
       </c>
       <c r="K63" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="L63" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="M63" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="N63" t="s">
-        <v>123</v>
+        <v>454</v>
       </c>
       <c r="O63" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="P63" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>445</v>
-      </c>
-      <c r="R63" t="s">
-        <v>91</v>
-      </c>
-      <c r="S63" t="s">
-        <v>446</v>
-      </c>
-      <c r="T63" t="s">
-        <v>89</v>
-      </c>
-      <c r="U63" t="s">
-        <v>447</v>
-      </c>
-      <c r="V63" t="s">
-        <v>68</v>
-      </c>
-      <c r="W63" t="s">
-        <v>448</v>
-      </c>
-      <c r="X63" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64">
@@ -5650,13 +5725,13 @@
         <v>52</v>
       </c>
       <c r="E64" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="F64" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G64" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="H64" t="s">
         <v>56</v>
@@ -5668,16 +5743,16 @@
         <v>58</v>
       </c>
       <c r="K64" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="L64" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="M64" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="N64" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65">
@@ -5694,34 +5769,70 @@
         <v>52</v>
       </c>
       <c r="E65" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="F65" t="s">
+        <v>461</v>
+      </c>
+      <c r="G65" t="s">
+        <v>259</v>
+      </c>
+      <c r="H65" t="s">
+        <v>56</v>
+      </c>
+      <c r="I65" t="s">
+        <v>57</v>
+      </c>
+      <c r="J65" t="s">
+        <v>58</v>
+      </c>
+      <c r="K65" t="s">
+        <v>462</v>
+      </c>
+      <c r="L65" t="s">
+        <v>308</v>
+      </c>
+      <c r="M65" t="s">
+        <v>463</v>
+      </c>
+      <c r="N65" t="s">
+        <v>464</v>
+      </c>
+      <c r="O65" t="s">
+        <v>465</v>
+      </c>
+      <c r="P65" t="s">
         <v>454</v>
       </c>
-      <c r="G65" t="s">
-        <v>55</v>
-      </c>
-      <c r="H65" t="s">
-        <v>56</v>
-      </c>
-      <c r="I65" t="s">
-        <v>57</v>
-      </c>
-      <c r="J65" t="s">
-        <v>58</v>
-      </c>
-      <c r="K65" t="s">
-        <v>455</v>
-      </c>
-      <c r="L65" t="s">
-        <v>193</v>
-      </c>
-      <c r="M65" t="s">
-        <v>456</v>
-      </c>
-      <c r="N65" t="s">
-        <v>70</v>
+      <c r="Q65" t="s">
+        <v>466</v>
+      </c>
+      <c r="R65" t="s">
+        <v>77</v>
+      </c>
+      <c r="S65" t="s">
+        <v>467</v>
+      </c>
+      <c r="T65" t="s">
+        <v>251</v>
+      </c>
+      <c r="U65" t="s">
+        <v>468</v>
+      </c>
+      <c r="V65" t="s">
+        <v>214</v>
+      </c>
+      <c r="W65" t="s">
+        <v>469</v>
+      </c>
+      <c r="X65" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>470</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="66">
@@ -5738,13 +5849,13 @@
         <v>52</v>
       </c>
       <c r="E66" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="F66" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="G66" t="s">
-        <v>459</v>
+        <v>55</v>
       </c>
       <c r="H66" t="s">
         <v>56</v>
@@ -5756,16 +5867,16 @@
         <v>58</v>
       </c>
       <c r="K66" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="L66" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="M66" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="N66" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67">
@@ -5782,13 +5893,13 @@
         <v>52</v>
       </c>
       <c r="E67" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="F67" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="G67" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="H67" t="s">
         <v>56</v>
@@ -5800,28 +5911,16 @@
         <v>58</v>
       </c>
       <c r="K67" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="L67" t="s">
-        <v>68</v>
+        <v>214</v>
       </c>
       <c r="M67" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="N67" t="s">
-        <v>360</v>
-      </c>
-      <c r="O67" t="s">
-        <v>466</v>
-      </c>
-      <c r="P67" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>467</v>
-      </c>
-      <c r="R67" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68">
@@ -5838,13 +5937,13 @@
         <v>52</v>
       </c>
       <c r="E68" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="F68" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="G68" t="s">
-        <v>58</v>
+        <v>482</v>
       </c>
       <c r="H68" t="s">
         <v>56</v>
@@ -5856,16 +5955,16 @@
         <v>58</v>
       </c>
       <c r="K68" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="L68" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M68" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="N68" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69">
@@ -5882,13 +5981,13 @@
         <v>52</v>
       </c>
       <c r="E69" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="F69" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="G69" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="H69" t="s">
         <v>56</v>
@@ -5900,16 +5999,16 @@
         <v>58</v>
       </c>
       <c r="K69" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="L69" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="M69" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="N69" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70">
@@ -5926,13 +6025,13 @@
         <v>52</v>
       </c>
       <c r="E70" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="F70" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="G70" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H70" t="s">
         <v>56</v>
@@ -5944,52 +6043,16 @@
         <v>58</v>
       </c>
       <c r="K70" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="L70" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="M70" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="N70" t="s">
-        <v>89</v>
-      </c>
-      <c r="O70" t="s">
-        <v>480</v>
-      </c>
-      <c r="P70" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>481</v>
-      </c>
-      <c r="R70" t="s">
-        <v>139</v>
-      </c>
-      <c r="S70" t="s">
-        <v>482</v>
-      </c>
-      <c r="T70" t="s">
-        <v>89</v>
-      </c>
-      <c r="U70" t="s">
-        <v>483</v>
-      </c>
-      <c r="V70" t="s">
-        <v>68</v>
-      </c>
-      <c r="W70" t="s">
-        <v>484</v>
-      </c>
-      <c r="X70" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>485</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71">
@@ -6006,13 +6069,13 @@
         <v>52</v>
       </c>
       <c r="E71" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="F71" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="G71" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="H71" t="s">
         <v>56</v>
@@ -6024,16 +6087,16 @@
         <v>58</v>
       </c>
       <c r="K71" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="L71" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="M71" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="N71" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72">
@@ -6050,10 +6113,10 @@
         <v>52</v>
       </c>
       <c r="E72" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="F72" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="G72" t="s">
         <v>52</v>
@@ -6068,16 +6131,16 @@
         <v>58</v>
       </c>
       <c r="K72" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="L72" t="s">
-        <v>369</v>
+        <v>69</v>
       </c>
       <c r="M72" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="N72" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73">
@@ -6094,10 +6157,10 @@
         <v>52</v>
       </c>
       <c r="E73" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="F73" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="G73" t="s">
         <v>58</v>
@@ -6112,16 +6175,16 @@
         <v>58</v>
       </c>
       <c r="K73" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="L73" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="M73" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="N73" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74">
@@ -6138,13 +6201,13 @@
         <v>52</v>
       </c>
       <c r="E74" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="F74" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="G74" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="H74" t="s">
         <v>56</v>
@@ -6156,22 +6219,22 @@
         <v>58</v>
       </c>
       <c r="K74" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="L74" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="M74" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="N74" t="s">
-        <v>68</v>
+        <v>471</v>
       </c>
       <c r="O74" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="P74" t="s">
-        <v>364</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75">
@@ -6188,13 +6251,13 @@
         <v>52</v>
       </c>
       <c r="E75" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="F75" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="G75" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H75" t="s">
         <v>56</v>
@@ -6206,22 +6269,34 @@
         <v>58</v>
       </c>
       <c r="K75" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="L75" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="M75" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="N75" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="O75" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="P75" t="s">
-        <v>89</v>
+        <v>69</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>516</v>
+      </c>
+      <c r="R75" t="s">
+        <v>81</v>
+      </c>
+      <c r="S75" t="s">
+        <v>517</v>
+      </c>
+      <c r="T75" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="76">
@@ -6238,13 +6313,13 @@
         <v>52</v>
       </c>
       <c r="E76" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="F76" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="G76" t="s">
-        <v>500</v>
+        <v>52</v>
       </c>
       <c r="H76" t="s">
         <v>56</v>
@@ -6256,16 +6331,22 @@
         <v>58</v>
       </c>
       <c r="K76" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="L76" t="s">
-        <v>360</v>
+        <v>153</v>
       </c>
       <c r="M76" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="N76" t="s">
-        <v>272</v>
+        <v>148</v>
+      </c>
+      <c r="O76" t="s">
+        <v>522</v>
+      </c>
+      <c r="P76" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="77">
@@ -6282,13 +6363,13 @@
         <v>52</v>
       </c>
       <c r="E77" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="F77" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="G77" t="s">
-        <v>106</v>
+        <v>259</v>
       </c>
       <c r="H77" t="s">
         <v>56</v>
@@ -6300,94 +6381,28 @@
         <v>58</v>
       </c>
       <c r="K77" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="L77" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="M77" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="N77" t="s">
-        <v>369</v>
+        <v>527</v>
       </c>
       <c r="O77" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="P77" t="s">
-        <v>152</v>
+        <v>471</v>
       </c>
       <c r="Q77" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="R77" t="s">
-        <v>108</v>
-      </c>
-      <c r="S77" t="s">
-        <v>519</v>
-      </c>
-      <c r="T77" t="s">
-        <v>123</v>
-      </c>
-      <c r="U77" t="s">
-        <v>520</v>
-      </c>
-      <c r="V77" t="s">
-        <v>123</v>
-      </c>
-      <c r="W77" t="s">
-        <v>521</v>
-      </c>
-      <c r="X77" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>522</v>
-      </c>
-      <c r="Z77" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA77" t="s">
-        <v>523</v>
-      </c>
-      <c r="AB77" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC77" t="s">
-        <v>524</v>
-      </c>
-      <c r="AD77" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE77" t="s">
-        <v>525</v>
-      </c>
-      <c r="AF77" t="s">
-        <v>526</v>
-      </c>
-      <c r="AG77" t="s">
-        <v>527</v>
-      </c>
-      <c r="AH77" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI77" t="s">
-        <v>528</v>
-      </c>
-      <c r="AJ77" t="s">
-        <v>387</v>
-      </c>
-      <c r="AK77" t="s">
-        <v>529</v>
-      </c>
-      <c r="AL77" t="s">
-        <v>369</v>
-      </c>
-      <c r="AM77" t="s">
-        <v>530</v>
-      </c>
-      <c r="AN77" t="s">
-        <v>64</v>
+        <v>471</v>
       </c>
     </row>
     <row r="78">
@@ -6404,46 +6419,34 @@
         <v>52</v>
       </c>
       <c r="E78" t="s">
+        <v>530</v>
+      </c>
+      <c r="F78" t="s">
         <v>531</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
+        <v>507</v>
+      </c>
+      <c r="H78" t="s">
+        <v>56</v>
+      </c>
+      <c r="I78" t="s">
+        <v>57</v>
+      </c>
+      <c r="J78" t="s">
+        <v>58</v>
+      </c>
+      <c r="K78" t="s">
         <v>532</v>
       </c>
-      <c r="G78" t="s">
-        <v>55</v>
-      </c>
-      <c r="H78" t="s">
-        <v>56</v>
-      </c>
-      <c r="I78" t="s">
-        <v>57</v>
-      </c>
-      <c r="J78" t="s">
-        <v>58</v>
-      </c>
-      <c r="K78" t="s">
+      <c r="L78" t="s">
+        <v>454</v>
+      </c>
+      <c r="M78" t="s">
         <v>533</v>
       </c>
-      <c r="L78" t="s">
-        <v>193</v>
-      </c>
-      <c r="M78" t="s">
-        <v>534</v>
-      </c>
       <c r="N78" t="s">
-        <v>64</v>
-      </c>
-      <c r="O78" t="s">
-        <v>535</v>
-      </c>
-      <c r="P78" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>536</v>
-      </c>
-      <c r="R78" t="s">
-        <v>70</v>
+        <v>308</v>
       </c>
     </row>
     <row r="79">
@@ -6460,40 +6463,46 @@
         <v>52</v>
       </c>
       <c r="E79" t="s">
+        <v>534</v>
+      </c>
+      <c r="F79" t="s">
+        <v>535</v>
+      </c>
+      <c r="G79" t="s">
+        <v>87</v>
+      </c>
+      <c r="H79" t="s">
+        <v>56</v>
+      </c>
+      <c r="I79" t="s">
+        <v>57</v>
+      </c>
+      <c r="J79" t="s">
+        <v>58</v>
+      </c>
+      <c r="K79" t="s">
+        <v>536</v>
+      </c>
+      <c r="L79" t="s">
+        <v>73</v>
+      </c>
+      <c r="M79" t="s">
         <v>537</v>
       </c>
-      <c r="F79" t="s">
+      <c r="N79" t="s">
+        <v>214</v>
+      </c>
+      <c r="O79" t="s">
         <v>538</v>
       </c>
-      <c r="G79" t="s">
-        <v>212</v>
-      </c>
-      <c r="H79" t="s">
-        <v>56</v>
-      </c>
-      <c r="I79" t="s">
-        <v>57</v>
-      </c>
-      <c r="J79" t="s">
-        <v>58</v>
-      </c>
-      <c r="K79" t="s">
+      <c r="P79" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q79" t="s">
         <v>539</v>
       </c>
-      <c r="L79" t="s">
-        <v>193</v>
-      </c>
-      <c r="M79" t="s">
-        <v>540</v>
-      </c>
-      <c r="N79" t="s">
-        <v>356</v>
-      </c>
-      <c r="O79" t="s">
-        <v>541</v>
-      </c>
-      <c r="P79" t="s">
-        <v>364</v>
+      <c r="R79" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="80">
@@ -6510,112 +6519,40 @@
         <v>52</v>
       </c>
       <c r="E80" t="s">
+        <v>540</v>
+      </c>
+      <c r="F80" t="s">
+        <v>541</v>
+      </c>
+      <c r="G80" t="s">
+        <v>259</v>
+      </c>
+      <c r="H80" t="s">
+        <v>56</v>
+      </c>
+      <c r="I80" t="s">
+        <v>57</v>
+      </c>
+      <c r="J80" t="s">
+        <v>58</v>
+      </c>
+      <c r="K80" t="s">
         <v>542</v>
       </c>
-      <c r="F80" t="s">
+      <c r="L80" t="s">
+        <v>214</v>
+      </c>
+      <c r="M80" t="s">
         <v>543</v>
       </c>
-      <c r="G80" t="s">
-        <v>52</v>
-      </c>
-      <c r="H80" t="s">
-        <v>56</v>
-      </c>
-      <c r="I80" t="s">
-        <v>57</v>
-      </c>
-      <c r="J80" t="s">
-        <v>58</v>
-      </c>
-      <c r="K80" t="s">
+      <c r="N80" t="s">
+        <v>464</v>
+      </c>
+      <c r="O80" t="s">
         <v>544</v>
       </c>
-      <c r="L80" t="s">
-        <v>155</v>
-      </c>
-      <c r="M80" t="s">
-        <v>545</v>
-      </c>
-      <c r="N80" t="s">
-        <v>139</v>
-      </c>
-      <c r="O80" t="s">
-        <v>546</v>
-      </c>
       <c r="P80" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>547</v>
-      </c>
-      <c r="R80" t="s">
-        <v>121</v>
-      </c>
-      <c r="S80" t="s">
-        <v>548</v>
-      </c>
-      <c r="T80" t="s">
-        <v>167</v>
-      </c>
-      <c r="U80" t="s">
-        <v>549</v>
-      </c>
-      <c r="V80" t="s">
-        <v>147</v>
-      </c>
-      <c r="W80" t="s">
-        <v>550</v>
-      </c>
-      <c r="X80" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y80" t="s">
-        <v>551</v>
-      </c>
-      <c r="Z80" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA80" t="s">
-        <v>552</v>
-      </c>
-      <c r="AB80" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC80" t="s">
-        <v>553</v>
-      </c>
-      <c r="AD80" t="s">
-        <v>369</v>
-      </c>
-      <c r="AE80" t="s">
-        <v>554</v>
-      </c>
-      <c r="AF80" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG80" t="s">
-        <v>555</v>
-      </c>
-      <c r="AH80" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI80" t="s">
-        <v>556</v>
-      </c>
-      <c r="AJ80" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK80" t="s">
-        <v>557</v>
-      </c>
-      <c r="AL80" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM80" t="s">
-        <v>558</v>
-      </c>
-      <c r="AN80" t="s">
-        <v>68</v>
+        <v>471</v>
       </c>
     </row>
     <row r="81">
@@ -6632,34 +6569,112 @@
         <v>52</v>
       </c>
       <c r="E81" t="s">
+        <v>545</v>
+      </c>
+      <c r="F81" t="s">
+        <v>546</v>
+      </c>
+      <c r="G81" t="s">
+        <v>52</v>
+      </c>
+      <c r="H81" t="s">
+        <v>56</v>
+      </c>
+      <c r="I81" t="s">
+        <v>57</v>
+      </c>
+      <c r="J81" t="s">
+        <v>58</v>
+      </c>
+      <c r="K81" t="s">
+        <v>547</v>
+      </c>
+      <c r="L81" t="s">
+        <v>69</v>
+      </c>
+      <c r="M81" t="s">
+        <v>548</v>
+      </c>
+      <c r="N81" t="s">
+        <v>153</v>
+      </c>
+      <c r="O81" t="s">
+        <v>549</v>
+      </c>
+      <c r="P81" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>550</v>
+      </c>
+      <c r="R81" t="s">
+        <v>65</v>
+      </c>
+      <c r="S81" t="s">
+        <v>551</v>
+      </c>
+      <c r="T81" t="s">
+        <v>62</v>
+      </c>
+      <c r="U81" t="s">
+        <v>552</v>
+      </c>
+      <c r="V81" t="s">
+        <v>67</v>
+      </c>
+      <c r="W81" t="s">
+        <v>553</v>
+      </c>
+      <c r="X81" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>554</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>555</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>556</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>557</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>558</v>
+      </c>
+      <c r="AH81" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI81" t="s">
         <v>559</v>
       </c>
-      <c r="F81" t="s">
+      <c r="AJ81" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK81" t="s">
         <v>560</v>
       </c>
-      <c r="G81" t="s">
-        <v>52</v>
-      </c>
-      <c r="H81" t="s">
-        <v>56</v>
-      </c>
-      <c r="I81" t="s">
-        <v>57</v>
-      </c>
-      <c r="J81" t="s">
-        <v>58</v>
-      </c>
-      <c r="K81" t="s">
+      <c r="AL81" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM81" t="s">
         <v>561</v>
       </c>
-      <c r="L81" t="s">
-        <v>155</v>
-      </c>
-      <c r="M81" t="s">
-        <v>562</v>
-      </c>
-      <c r="N81" t="s">
-        <v>89</v>
+      <c r="AN81" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="82">
@@ -6676,70 +6691,34 @@
         <v>52</v>
       </c>
       <c r="E82" t="s">
+        <v>562</v>
+      </c>
+      <c r="F82" t="s">
         <v>563</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
+        <v>52</v>
+      </c>
+      <c r="H82" t="s">
+        <v>56</v>
+      </c>
+      <c r="I82" t="s">
+        <v>57</v>
+      </c>
+      <c r="J82" t="s">
+        <v>58</v>
+      </c>
+      <c r="K82" t="s">
         <v>564</v>
       </c>
-      <c r="G82" t="s">
-        <v>52</v>
-      </c>
-      <c r="H82" t="s">
-        <v>56</v>
-      </c>
-      <c r="I82" t="s">
-        <v>57</v>
-      </c>
-      <c r="J82" t="s">
-        <v>58</v>
-      </c>
-      <c r="K82" t="s">
+      <c r="L82" t="s">
+        <v>153</v>
+      </c>
+      <c r="M82" t="s">
         <v>565</v>
       </c>
-      <c r="L82" t="s">
-        <v>147</v>
-      </c>
-      <c r="M82" t="s">
-        <v>566</v>
-      </c>
       <c r="N82" t="s">
-        <v>123</v>
-      </c>
-      <c r="O82" t="s">
-        <v>567</v>
-      </c>
-      <c r="P82" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>568</v>
-      </c>
-      <c r="R82" t="s">
-        <v>155</v>
-      </c>
-      <c r="S82" t="s">
-        <v>569</v>
-      </c>
-      <c r="T82" t="s">
-        <v>570</v>
-      </c>
-      <c r="U82" t="s">
-        <v>571</v>
-      </c>
-      <c r="V82" t="s">
-        <v>121</v>
-      </c>
-      <c r="W82" t="s">
-        <v>572</v>
-      </c>
-      <c r="X82" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y82" t="s">
-        <v>573</v>
-      </c>
-      <c r="Z82" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83">
@@ -6756,13 +6735,13 @@
         <v>52</v>
       </c>
       <c r="E83" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F83" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="G83" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H83" t="s">
         <v>56</v>
@@ -6774,34 +6753,52 @@
         <v>58</v>
       </c>
       <c r="K83" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="L83" t="s">
         <v>62</v>
       </c>
       <c r="M83" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="N83" t="s">
-        <v>193</v>
+        <v>570</v>
       </c>
       <c r="O83" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="P83" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q83" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="R83" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="S83" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="T83" t="s">
-        <v>70</v>
+        <v>158</v>
+      </c>
+      <c r="U83" t="s">
+        <v>574</v>
+      </c>
+      <c r="V83" t="s">
+        <v>62</v>
+      </c>
+      <c r="W83" t="s">
+        <v>575</v>
+      </c>
+      <c r="X83" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>576</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="84">
@@ -6818,10 +6815,10 @@
         <v>52</v>
       </c>
       <c r="E84" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F84" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G84" t="s">
         <v>58</v>
@@ -6836,16 +6833,16 @@
         <v>58</v>
       </c>
       <c r="K84" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="L84" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="M84" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="N84" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85">
@@ -6862,40 +6859,40 @@
         <v>52</v>
       </c>
       <c r="E85" t="s">
+        <v>581</v>
+      </c>
+      <c r="F85" t="s">
+        <v>582</v>
+      </c>
+      <c r="G85" t="s">
+        <v>259</v>
+      </c>
+      <c r="H85" t="s">
+        <v>56</v>
+      </c>
+      <c r="I85" t="s">
+        <v>57</v>
+      </c>
+      <c r="J85" t="s">
+        <v>58</v>
+      </c>
+      <c r="K85" t="s">
+        <v>583</v>
+      </c>
+      <c r="L85" t="s">
+        <v>214</v>
+      </c>
+      <c r="M85" t="s">
+        <v>584</v>
+      </c>
+      <c r="N85" t="s">
+        <v>471</v>
+      </c>
+      <c r="O85" t="s">
         <v>585</v>
       </c>
-      <c r="F85" t="s">
-        <v>586</v>
-      </c>
-      <c r="G85" t="s">
-        <v>212</v>
-      </c>
-      <c r="H85" t="s">
-        <v>56</v>
-      </c>
-      <c r="I85" t="s">
-        <v>57</v>
-      </c>
-      <c r="J85" t="s">
-        <v>58</v>
-      </c>
-      <c r="K85" t="s">
-        <v>587</v>
-      </c>
-      <c r="L85" t="s">
-        <v>193</v>
-      </c>
-      <c r="M85" t="s">
-        <v>588</v>
-      </c>
-      <c r="N85" t="s">
-        <v>364</v>
-      </c>
-      <c r="O85" t="s">
-        <v>589</v>
-      </c>
       <c r="P85" t="s">
-        <v>364</v>
+        <v>471</v>
       </c>
     </row>
     <row r="86">
@@ -6912,10 +6909,10 @@
         <v>52</v>
       </c>
       <c r="E86" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F86" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="G86" t="s">
         <v>52</v>
@@ -6930,16 +6927,16 @@
         <v>58</v>
       </c>
       <c r="K86" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="L86" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="M86" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="N86" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87">
@@ -6956,13 +6953,13 @@
         <v>52</v>
       </c>
       <c r="E87" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="F87" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G87" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="H87" t="s">
         <v>56</v>
@@ -6974,16 +6971,16 @@
         <v>58</v>
       </c>
       <c r="K87" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="L87" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="M87" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="N87" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88">
@@ -7000,46 +6997,46 @@
         <v>52</v>
       </c>
       <c r="E88" t="s">
+        <v>594</v>
+      </c>
+      <c r="F88" t="s">
+        <v>595</v>
+      </c>
+      <c r="G88" t="s">
+        <v>58</v>
+      </c>
+      <c r="H88" t="s">
+        <v>56</v>
+      </c>
+      <c r="I88" t="s">
+        <v>57</v>
+      </c>
+      <c r="J88" t="s">
+        <v>58</v>
+      </c>
+      <c r="K88" t="s">
+        <v>596</v>
+      </c>
+      <c r="L88" t="s">
+        <v>79</v>
+      </c>
+      <c r="M88" t="s">
+        <v>597</v>
+      </c>
+      <c r="N88" t="s">
+        <v>73</v>
+      </c>
+      <c r="O88" t="s">
         <v>598</v>
       </c>
-      <c r="F88" t="s">
+      <c r="P88" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q88" t="s">
         <v>599</v>
       </c>
-      <c r="G88" t="s">
-        <v>58</v>
-      </c>
-      <c r="H88" t="s">
-        <v>56</v>
-      </c>
-      <c r="I88" t="s">
-        <v>57</v>
-      </c>
-      <c r="J88" t="s">
-        <v>58</v>
-      </c>
-      <c r="K88" t="s">
-        <v>600</v>
-      </c>
-      <c r="L88" t="s">
-        <v>64</v>
-      </c>
-      <c r="M88" t="s">
-        <v>601</v>
-      </c>
-      <c r="N88" t="s">
-        <v>89</v>
-      </c>
-      <c r="O88" t="s">
-        <v>602</v>
-      </c>
-      <c r="P88" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>603</v>
-      </c>
       <c r="R88" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89">
@@ -7056,34 +7053,40 @@
         <v>52</v>
       </c>
       <c r="E89" t="s">
+        <v>600</v>
+      </c>
+      <c r="F89" t="s">
+        <v>601</v>
+      </c>
+      <c r="G89" t="s">
+        <v>87</v>
+      </c>
+      <c r="H89" t="s">
+        <v>56</v>
+      </c>
+      <c r="I89" t="s">
+        <v>57</v>
+      </c>
+      <c r="J89" t="s">
+        <v>58</v>
+      </c>
+      <c r="K89" t="s">
+        <v>602</v>
+      </c>
+      <c r="L89" t="s">
+        <v>112</v>
+      </c>
+      <c r="M89" t="s">
+        <v>603</v>
+      </c>
+      <c r="N89" t="s">
+        <v>73</v>
+      </c>
+      <c r="O89" t="s">
         <v>604</v>
       </c>
-      <c r="F89" t="s">
-        <v>605</v>
-      </c>
-      <c r="G89" t="s">
-        <v>58</v>
-      </c>
-      <c r="H89" t="s">
-        <v>56</v>
-      </c>
-      <c r="I89" t="s">
-        <v>57</v>
-      </c>
-      <c r="J89" t="s">
-        <v>58</v>
-      </c>
-      <c r="K89" t="s">
-        <v>606</v>
-      </c>
-      <c r="L89" t="s">
-        <v>64</v>
-      </c>
-      <c r="M89" t="s">
-        <v>607</v>
-      </c>
-      <c r="N89" t="s">
-        <v>139</v>
+      <c r="P89" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="90">
@@ -7100,46 +7103,34 @@
         <v>52</v>
       </c>
       <c r="E90" t="s">
+        <v>605</v>
+      </c>
+      <c r="F90" t="s">
+        <v>606</v>
+      </c>
+      <c r="G90" t="s">
+        <v>58</v>
+      </c>
+      <c r="H90" t="s">
+        <v>56</v>
+      </c>
+      <c r="I90" t="s">
+        <v>57</v>
+      </c>
+      <c r="J90" t="s">
+        <v>58</v>
+      </c>
+      <c r="K90" t="s">
+        <v>607</v>
+      </c>
+      <c r="L90" t="s">
+        <v>73</v>
+      </c>
+      <c r="M90" t="s">
         <v>608</v>
       </c>
-      <c r="F90" t="s">
-        <v>609</v>
-      </c>
-      <c r="G90" t="s">
-        <v>106</v>
-      </c>
-      <c r="H90" t="s">
-        <v>56</v>
-      </c>
-      <c r="I90" t="s">
-        <v>57</v>
-      </c>
-      <c r="J90" t="s">
-        <v>58</v>
-      </c>
-      <c r="K90" t="s">
-        <v>610</v>
-      </c>
-      <c r="L90" t="s">
-        <v>123</v>
-      </c>
-      <c r="M90" t="s">
-        <v>611</v>
-      </c>
       <c r="N90" t="s">
-        <v>108</v>
-      </c>
-      <c r="O90" t="s">
-        <v>612</v>
-      </c>
-      <c r="P90" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>613</v>
-      </c>
-      <c r="R90" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91">
@@ -7156,13 +7147,13 @@
         <v>52</v>
       </c>
       <c r="E91" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="F91" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="G91" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="H91" t="s">
         <v>56</v>
@@ -7174,16 +7165,16 @@
         <v>58</v>
       </c>
       <c r="K91" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="L91" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="M91" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="N91" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92">
@@ -7200,13 +7191,13 @@
         <v>52</v>
       </c>
       <c r="E92" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="F92" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="G92" t="s">
-        <v>52</v>
+        <v>615</v>
       </c>
       <c r="H92" t="s">
         <v>56</v>
@@ -7218,22 +7209,16 @@
         <v>58</v>
       </c>
       <c r="K92" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="L92" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="M92" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="N92" t="s">
-        <v>155</v>
-      </c>
-      <c r="O92" t="s">
-        <v>622</v>
-      </c>
-      <c r="P92" t="s">
-        <v>364</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93">
@@ -7250,13 +7235,13 @@
         <v>52</v>
       </c>
       <c r="E93" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F93" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G93" t="s">
-        <v>459</v>
+        <v>58</v>
       </c>
       <c r="H93" t="s">
         <v>56</v>
@@ -7268,22 +7253,16 @@
         <v>58</v>
       </c>
       <c r="K93" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="L93" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M93" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="N93" t="s">
-        <v>89</v>
-      </c>
-      <c r="O93" t="s">
-        <v>627</v>
-      </c>
-      <c r="P93" t="s">
-        <v>364</v>
+        <v>148</v>
       </c>
     </row>
     <row r="94">
@@ -7300,13 +7279,13 @@
         <v>52</v>
       </c>
       <c r="E94" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="F94" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="G94" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H94" t="s">
         <v>56</v>
@@ -7318,22 +7297,16 @@
         <v>58</v>
       </c>
       <c r="K94" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="L94" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="M94" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="N94" t="s">
-        <v>68</v>
-      </c>
-      <c r="O94" t="s">
-        <v>632</v>
-      </c>
-      <c r="P94" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95">
@@ -7350,13 +7323,13 @@
         <v>52</v>
       </c>
       <c r="E95" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="F95" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="G95" t="s">
-        <v>635</v>
+        <v>259</v>
       </c>
       <c r="H95" t="s">
         <v>56</v>
@@ -7368,16 +7341,16 @@
         <v>58</v>
       </c>
       <c r="K95" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="L95" t="s">
-        <v>64</v>
+        <v>214</v>
       </c>
       <c r="M95" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="N95" t="s">
-        <v>139</v>
+        <v>471</v>
       </c>
     </row>
     <row r="96">
@@ -7394,10 +7367,10 @@
         <v>52</v>
       </c>
       <c r="E96" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="F96" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="G96" t="s">
         <v>58</v>
@@ -7412,16 +7385,28 @@
         <v>58</v>
       </c>
       <c r="K96" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="L96" t="s">
-        <v>64</v>
+        <v>308</v>
       </c>
       <c r="M96" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="N96" t="s">
-        <v>139</v>
+        <v>77</v>
+      </c>
+      <c r="O96" t="s">
+        <v>634</v>
+      </c>
+      <c r="P96" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>635</v>
+      </c>
+      <c r="R96" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="97">
@@ -7438,13 +7423,13 @@
         <v>52</v>
       </c>
       <c r="E97" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="F97" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="G97" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H97" t="s">
         <v>56</v>
@@ -7456,16 +7441,28 @@
         <v>58</v>
       </c>
       <c r="K97" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="L97" t="s">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="M97" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="N97" t="s">
-        <v>68</v>
+        <v>454</v>
+      </c>
+      <c r="O97" t="s">
+        <v>640</v>
+      </c>
+      <c r="P97" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>641</v>
+      </c>
+      <c r="R97" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="98">
@@ -7482,34 +7479,40 @@
         <v>52</v>
       </c>
       <c r="E98" t="s">
+        <v>642</v>
+      </c>
+      <c r="F98" t="s">
+        <v>643</v>
+      </c>
+      <c r="G98" t="s">
+        <v>58</v>
+      </c>
+      <c r="H98" t="s">
+        <v>56</v>
+      </c>
+      <c r="I98" t="s">
+        <v>57</v>
+      </c>
+      <c r="J98" t="s">
+        <v>58</v>
+      </c>
+      <c r="K98" t="s">
+        <v>644</v>
+      </c>
+      <c r="L98" t="s">
+        <v>79</v>
+      </c>
+      <c r="M98" t="s">
+        <v>645</v>
+      </c>
+      <c r="N98" t="s">
+        <v>73</v>
+      </c>
+      <c r="O98" t="s">
         <v>646</v>
       </c>
-      <c r="F98" t="s">
-        <v>647</v>
-      </c>
-      <c r="G98" t="s">
-        <v>212</v>
-      </c>
-      <c r="H98" t="s">
-        <v>56</v>
-      </c>
-      <c r="I98" t="s">
-        <v>57</v>
-      </c>
-      <c r="J98" t="s">
-        <v>58</v>
-      </c>
-      <c r="K98" t="s">
-        <v>648</v>
-      </c>
-      <c r="L98" t="s">
-        <v>193</v>
-      </c>
-      <c r="M98" t="s">
-        <v>649</v>
-      </c>
-      <c r="N98" t="s">
-        <v>364</v>
+      <c r="P98" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="99">
@@ -7526,46 +7529,40 @@
         <v>52</v>
       </c>
       <c r="E99" t="s">
+        <v>647</v>
+      </c>
+      <c r="F99" t="s">
+        <v>648</v>
+      </c>
+      <c r="G99" t="s">
+        <v>58</v>
+      </c>
+      <c r="H99" t="s">
+        <v>56</v>
+      </c>
+      <c r="I99" t="s">
+        <v>57</v>
+      </c>
+      <c r="J99" t="s">
+        <v>58</v>
+      </c>
+      <c r="K99" t="s">
+        <v>649</v>
+      </c>
+      <c r="L99" t="s">
+        <v>77</v>
+      </c>
+      <c r="M99" t="s">
         <v>650</v>
       </c>
-      <c r="F99" t="s">
+      <c r="N99" t="s">
+        <v>73</v>
+      </c>
+      <c r="O99" t="s">
         <v>651</v>
       </c>
-      <c r="G99" t="s">
-        <v>58</v>
-      </c>
-      <c r="H99" t="s">
-        <v>56</v>
-      </c>
-      <c r="I99" t="s">
-        <v>57</v>
-      </c>
-      <c r="J99" t="s">
-        <v>58</v>
-      </c>
-      <c r="K99" t="s">
-        <v>652</v>
-      </c>
-      <c r="L99" t="s">
-        <v>272</v>
-      </c>
-      <c r="M99" t="s">
-        <v>653</v>
-      </c>
-      <c r="N99" t="s">
-        <v>186</v>
-      </c>
-      <c r="O99" t="s">
-        <v>654</v>
-      </c>
       <c r="P99" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>655</v>
-      </c>
-      <c r="R99" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="100">
@@ -7582,13 +7579,13 @@
         <v>52</v>
       </c>
       <c r="E100" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="F100" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="G100" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="H100" t="s">
         <v>56</v>
@@ -7600,28 +7597,16 @@
         <v>58</v>
       </c>
       <c r="K100" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="L100" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="M100" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="N100" t="s">
-        <v>369</v>
-      </c>
-      <c r="O100" t="s">
-        <v>660</v>
-      </c>
-      <c r="P100" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>661</v>
-      </c>
-      <c r="R100" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101">
@@ -7638,40 +7623,70 @@
         <v>52</v>
       </c>
       <c r="E101" t="s">
+        <v>656</v>
+      </c>
+      <c r="F101" t="s">
+        <v>657</v>
+      </c>
+      <c r="G101" t="s">
+        <v>58</v>
+      </c>
+      <c r="H101" t="s">
+        <v>56</v>
+      </c>
+      <c r="I101" t="s">
+        <v>57</v>
+      </c>
+      <c r="J101" t="s">
+        <v>58</v>
+      </c>
+      <c r="K101" t="s">
+        <v>658</v>
+      </c>
+      <c r="L101" t="s">
+        <v>454</v>
+      </c>
+      <c r="M101" t="s">
+        <v>659</v>
+      </c>
+      <c r="N101" t="s">
+        <v>79</v>
+      </c>
+      <c r="O101" t="s">
+        <v>660</v>
+      </c>
+      <c r="P101" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>661</v>
+      </c>
+      <c r="R101" t="s">
+        <v>79</v>
+      </c>
+      <c r="S101" t="s">
         <v>662</v>
       </c>
-      <c r="F101" t="s">
+      <c r="T101" t="s">
+        <v>77</v>
+      </c>
+      <c r="U101" t="s">
         <v>663</v>
       </c>
-      <c r="G101" t="s">
-        <v>58</v>
-      </c>
-      <c r="H101" t="s">
-        <v>56</v>
-      </c>
-      <c r="I101" t="s">
-        <v>57</v>
-      </c>
-      <c r="J101" t="s">
-        <v>58</v>
-      </c>
-      <c r="K101" t="s">
+      <c r="V101" t="s">
+        <v>148</v>
+      </c>
+      <c r="W101" t="s">
         <v>664</v>
       </c>
-      <c r="L101" t="s">
-        <v>64</v>
-      </c>
-      <c r="M101" t="s">
+      <c r="X101" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y101" t="s">
         <v>665</v>
       </c>
-      <c r="N101" t="s">
-        <v>89</v>
-      </c>
-      <c r="O101" t="s">
-        <v>666</v>
-      </c>
-      <c r="P101" t="s">
-        <v>139</v>
+      <c r="Z101" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="102">
@@ -7688,40 +7703,52 @@
         <v>52</v>
       </c>
       <c r="E102" t="s">
+        <v>666</v>
+      </c>
+      <c r="F102" t="s">
         <v>667</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
+        <v>87</v>
+      </c>
+      <c r="H102" t="s">
+        <v>56</v>
+      </c>
+      <c r="I102" t="s">
+        <v>57</v>
+      </c>
+      <c r="J102" t="s">
+        <v>58</v>
+      </c>
+      <c r="K102" t="s">
         <v>668</v>
       </c>
-      <c r="G102" t="s">
-        <v>58</v>
-      </c>
-      <c r="H102" t="s">
-        <v>56</v>
-      </c>
-      <c r="I102" t="s">
-        <v>57</v>
-      </c>
-      <c r="J102" t="s">
-        <v>58</v>
-      </c>
-      <c r="K102" t="s">
+      <c r="L102" t="s">
+        <v>73</v>
+      </c>
+      <c r="M102" t="s">
         <v>669</v>
       </c>
-      <c r="L102" t="s">
-        <v>64</v>
-      </c>
-      <c r="M102" t="s">
+      <c r="N102" t="s">
+        <v>90</v>
+      </c>
+      <c r="O102" t="s">
         <v>670</v>
       </c>
-      <c r="N102" t="s">
-        <v>68</v>
-      </c>
-      <c r="O102" t="s">
+      <c r="P102" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q102" t="s">
         <v>671</v>
       </c>
-      <c r="P102" t="s">
-        <v>369</v>
+      <c r="R102" t="s">
+        <v>231</v>
+      </c>
+      <c r="S102" t="s">
+        <v>672</v>
+      </c>
+      <c r="T102" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="103">
@@ -7738,13 +7765,13 @@
         <v>52</v>
       </c>
       <c r="E103" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F103" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G103" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="H103" t="s">
         <v>56</v>
@@ -7756,16 +7783,16 @@
         <v>58</v>
       </c>
       <c r="K103" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="L103" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="M103" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="N103" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104">
@@ -7782,13 +7809,13 @@
         <v>52</v>
       </c>
       <c r="E104" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F104" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="G104" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H104" t="s">
         <v>56</v>
@@ -7800,21 +7827,21 @@
         <v>58</v>
       </c>
       <c r="K104" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="L104" t="s">
-        <v>64</v>
+        <v>190</v>
       </c>
       <c r="M104" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="N104" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B105" t="s">
         <v>50</v>
@@ -7826,10 +7853,10 @@
         <v>52</v>
       </c>
       <c r="E105" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F105" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G105" t="s">
         <v>52</v>
@@ -7844,16 +7871,72 @@
         <v>58</v>
       </c>
       <c r="K105" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="L105" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="M105" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="N105" t="s">
-        <v>89</v>
+        <v>153</v>
+      </c>
+      <c r="O105" t="s">
+        <v>685</v>
+      </c>
+      <c r="P105" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>50</v>
+      </c>
+      <c r="C106" t="s">
+        <v>51</v>
+      </c>
+      <c r="D106" t="s">
+        <v>52</v>
+      </c>
+      <c r="E106" t="s">
+        <v>686</v>
+      </c>
+      <c r="F106" t="s">
+        <v>687</v>
+      </c>
+      <c r="G106" t="s">
+        <v>482</v>
+      </c>
+      <c r="H106" t="s">
+        <v>56</v>
+      </c>
+      <c r="I106" t="s">
+        <v>57</v>
+      </c>
+      <c r="J106" t="s">
+        <v>58</v>
+      </c>
+      <c r="K106" t="s">
+        <v>688</v>
+      </c>
+      <c r="L106" t="s">
+        <v>77</v>
+      </c>
+      <c r="M106" t="s">
+        <v>689</v>
+      </c>
+      <c r="N106" t="s">
+        <v>79</v>
+      </c>
+      <c r="O106" t="s">
+        <v>690</v>
+      </c>
+      <c r="P106" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>
